--- a/exp_map.xlsx
+++ b/exp_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E58E5A-4B25-4050-B95B-B7784B2028C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA08302-FD7C-4A7A-BB0A-A1D01D0BC592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,15 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:H497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="I397" sqref="I397"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J494" sqref="J494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
@@ -374,8 +374,12 @@
       <c r="G1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1">
+        <f ca="1">RAND()*100</f>
+        <v>16.568260549125636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
@@ -392,13 +396,17 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f t="shared" ref="H2:H65" ca="1" si="0">RAND()*100</f>
+        <v>36.225827046597473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
@@ -420,8 +428,12 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.960304250181952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
@@ -443,8 +455,12 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.56944556795888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>267</v>
       </c>
@@ -466,8 +482,12 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>85.921182053142175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -484,13 +504,17 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>84.606701842013251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,8 +536,12 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>67.85594301123804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -535,8 +563,12 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83.648224330688251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -553,13 +585,17 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.00852840904804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -576,13 +612,17 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.724799614859037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -599,13 +639,17 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>70.616296357202231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -622,13 +666,17 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.491933768098921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -645,13 +693,17 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.642893296654679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -668,13 +720,17 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.515659976177421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -691,13 +747,17 @@
         <v>7</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.966375519641016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -714,13 +774,17 @@
         <v>7</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>90.522459558075425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -737,13 +801,17 @@
         <v>10.5</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.443030195650486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>272</v>
       </c>
@@ -765,8 +833,12 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>33.423214324994952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -783,13 +855,17 @@
         <v>17.5</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.257570510647813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
@@ -806,13 +882,17 @@
         <v>17.5</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>37.440204048356726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -829,13 +909,17 @@
         <v>17.5</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>89.542132294522418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -852,13 +936,17 @@
         <v>17.5</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>73.407631503688989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
@@ -875,21 +963,29 @@
         <v>17.5</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.721572402781625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.756647296561727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>22</v>
       </c>
@@ -906,13 +1002,17 @@
         <v>14</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.568879172959164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>55</v>
       </c>
@@ -929,13 +1029,17 @@
         <v>3.5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3184140692698954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>54</v>
       </c>
@@ -952,13 +1056,17 @@
         <v>3.5</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8649096468226007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>53</v>
       </c>
@@ -975,13 +1083,17 @@
         <v>3.5</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.787996366403988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>52</v>
       </c>
@@ -998,13 +1110,17 @@
         <v>3.5</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.490825405728856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1026,8 +1142,12 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.69998046440594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>50</v>
       </c>
@@ -1044,13 +1164,17 @@
         <v>3.5</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8277616296796397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>20</v>
       </c>
@@ -1067,13 +1191,17 @@
         <v>3.5</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5204664209207248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1090,13 +1218,17 @@
         <v>3.5</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1370744522840721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>49</v>
       </c>
@@ -1113,13 +1245,17 @@
         <v>3.5</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.708155393240585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>63</v>
       </c>
@@ -1136,13 +1272,17 @@
         <v>3.5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <f t="shared" ca="1" si="0"/>
+        <v>78.074075316162734</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>49</v>
       </c>
@@ -1159,13 +1299,17 @@
         <v>3.5</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <f t="shared" ca="1" si="0"/>
+        <v>87.466438313538035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>62</v>
       </c>
@@ -1182,13 +1326,17 @@
         <v>3.5</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <f t="shared" ca="1" si="0"/>
+        <v>85.479094918601149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>63</v>
       </c>
@@ -1205,13 +1353,17 @@
         <v>3.5</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.667620005915936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>63</v>
       </c>
@@ -1228,13 +1380,17 @@
         <v>3.5</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <f t="shared" ca="1" si="0"/>
+        <v>84.730316667872501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>60</v>
       </c>
@@ -1251,13 +1407,17 @@
         <v>3.5</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.09778542362524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>48</v>
       </c>
@@ -1274,13 +1434,17 @@
         <v>3.5</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.61610579016763</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>47</v>
       </c>
@@ -1297,13 +1461,17 @@
         <v>3.5</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76591027622708863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>47</v>
       </c>
@@ -1320,13 +1488,17 @@
         <v>3.5</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <f t="shared" ca="1" si="0"/>
+        <v>72.545565724811581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>50</v>
       </c>
@@ -1343,13 +1515,17 @@
         <v>3.5</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.862911544041442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>46</v>
       </c>
@@ -1366,13 +1542,17 @@
         <v>3.5</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.171283550808198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1389,13 +1569,17 @@
         <v>3.5</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <f t="shared" ca="1" si="0"/>
+        <v>99.725880259631552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1412,13 +1596,17 @@
         <v>3.5</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <f t="shared" ca="1" si="0"/>
+        <v>35.050134319739279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>19</v>
       </c>
@@ -1435,13 +1623,17 @@
         <v>3.5</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <f t="shared" ca="1" si="0"/>
+        <v>17.267163431336485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>44</v>
       </c>
@@ -1458,13 +1650,17 @@
         <v>3.5</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <f t="shared" ca="1" si="0"/>
+        <v>77.682240735245188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>44</v>
       </c>
@@ -1481,13 +1677,17 @@
         <v>3.5</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.936450884528881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>275</v>
       </c>
@@ -1504,13 +1704,17 @@
         <v>3.5</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.418108516325457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>274</v>
       </c>
@@ -1532,8 +1736,12 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.270372448630074</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>57</v>
       </c>
@@ -1550,13 +1758,17 @@
         <v>3.5</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.940019463132359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>57</v>
       </c>
@@ -1578,8 +1790,12 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8704169288637775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>56</v>
       </c>
@@ -1601,8 +1817,12 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.17799338708792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>71</v>
       </c>
@@ -1624,8 +1844,12 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <f t="shared" ca="1" si="0"/>
+        <v>42.452450787126608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1647,8 +1871,12 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.104596461304244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>47</v>
       </c>
@@ -1670,8 +1898,12 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.247397490776791</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1693,8 +1925,12 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.744656874161663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1716,8 +1952,12 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.287305238774813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1739,8 +1979,12 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8309001489304033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>278</v>
       </c>
@@ -1762,8 +2006,12 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.933678891551331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>71</v>
       </c>
@@ -1785,8 +2033,12 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.259390908996792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>279</v>
       </c>
@@ -1808,8 +2060,12 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <f t="shared" ca="1" si="0"/>
+        <v>93.811748679845522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>279</v>
       </c>
@@ -1831,8 +2087,12 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.925861012479004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>104</v>
       </c>
@@ -1854,8 +2114,12 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <f t="shared" ref="H66:H129" ca="1" si="1">RAND()*100</f>
+        <v>15.587310381465402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>279</v>
       </c>
@@ -1877,8 +2141,12 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.88441064464299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>187</v>
       </c>
@@ -1900,8 +2168,12 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.826847055799135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>64</v>
       </c>
@@ -1923,8 +2195,12 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <f t="shared" ca="1" si="1"/>
+        <v>41.656574487260698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>52</v>
       </c>
@@ -1946,8 +2222,12 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <f t="shared" ca="1" si="1"/>
+        <v>61.738888718745677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>64</v>
       </c>
@@ -1969,8 +2249,12 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <f t="shared" ca="1" si="1"/>
+        <v>42.99908129203429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>53</v>
       </c>
@@ -1992,8 +2276,12 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <f t="shared" ca="1" si="1"/>
+        <v>91.194302581832247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>66</v>
       </c>
@@ -2015,8 +2303,12 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <f t="shared" ca="1" si="1"/>
+        <v>85.019297379513063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>54</v>
       </c>
@@ -2038,8 +2330,12 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <f t="shared" ca="1" si="1"/>
+        <v>65.606727611731202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>67</v>
       </c>
@@ -2061,8 +2357,12 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1007385249307897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>67</v>
       </c>
@@ -2084,8 +2384,12 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <f t="shared" ca="1" si="1"/>
+        <v>88.432562303087707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>67</v>
       </c>
@@ -2107,8 +2411,12 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.815083789254054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>68</v>
       </c>
@@ -2130,8 +2438,12 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <f t="shared" ca="1" si="1"/>
+        <v>62.231242447245748</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>68</v>
       </c>
@@ -2153,8 +2465,12 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.4407397086188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>66</v>
       </c>
@@ -2176,8 +2492,12 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <f t="shared" ca="1" si="1"/>
+        <v>33.868631297616147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>69</v>
       </c>
@@ -2199,8 +2519,12 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.560298911831637</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>106</v>
       </c>
@@ -2222,8 +2546,12 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.571115536502887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>70</v>
       </c>
@@ -2245,8 +2573,12 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <f t="shared" ca="1" si="1"/>
+        <v>76.783861824224317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>186</v>
       </c>
@@ -2268,8 +2600,12 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <f t="shared" ca="1" si="1"/>
+        <v>72.30381659319481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>105</v>
       </c>
@@ -2291,8 +2627,12 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <f t="shared" ca="1" si="1"/>
+        <v>58.495592963494971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>179</v>
       </c>
@@ -2314,8 +2654,12 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.735572218687087</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>183</v>
       </c>
@@ -2337,8 +2681,12 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.748456773797749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>280</v>
       </c>
@@ -2360,8 +2708,12 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3230630700751203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>106</v>
       </c>
@@ -2383,8 +2735,12 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <f t="shared" ca="1" si="1"/>
+        <v>32.527302676286183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>180</v>
       </c>
@@ -2406,8 +2762,12 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <f t="shared" ca="1" si="1"/>
+        <v>47.743316978305558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>184</v>
       </c>
@@ -2429,8 +2789,12 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.334506058643026</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>183</v>
       </c>
@@ -2452,8 +2816,12 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <f t="shared" ca="1" si="1"/>
+        <v>55.188061126428167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>182</v>
       </c>
@@ -2475,8 +2843,12 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.501140154949738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>176</v>
       </c>
@@ -2498,8 +2870,12 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <f t="shared" ca="1" si="1"/>
+        <v>57.442982732003792</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>185</v>
       </c>
@@ -2521,8 +2897,12 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9704479687519942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>187</v>
       </c>
@@ -2544,8 +2924,12 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.567568691948139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>179</v>
       </c>
@@ -2567,8 +2951,12 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.822527115450015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>181</v>
       </c>
@@ -2590,8 +2978,12 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.794867378651588</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>281</v>
       </c>
@@ -2613,8 +3005,12 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <f t="shared" ca="1" si="1"/>
+        <v>67.09269122526166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>176</v>
       </c>
@@ -2636,8 +3032,12 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.526056747697332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>177</v>
       </c>
@@ -2659,8 +3059,12 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.06915591899083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>289</v>
       </c>
@@ -2682,8 +3086,12 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.644488719088045</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>287</v>
       </c>
@@ -2705,8 +3113,12 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <f t="shared" ca="1" si="1"/>
+        <v>68.246622762753688</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>288</v>
       </c>
@@ -2728,8 +3140,12 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.518309083354154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>289</v>
       </c>
@@ -2751,8 +3167,12 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.259386393886587</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>174</v>
       </c>
@@ -2774,8 +3194,12 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <f t="shared" ca="1" si="1"/>
+        <v>34.801186602182867</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>282</v>
       </c>
@@ -2797,8 +3221,12 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.351794566052803</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>172</v>
       </c>
@@ -2820,8 +3248,12 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.316550230663861</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>170</v>
       </c>
@@ -2843,8 +3275,12 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.253291984706671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>169</v>
       </c>
@@ -2866,8 +3302,12 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <f t="shared" ca="1" si="1"/>
+        <v>46.726348152364849</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>103</v>
       </c>
@@ -2889,8 +3329,12 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <f t="shared" ca="1" si="1"/>
+        <v>93.488398293195843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>44</v>
       </c>
@@ -2912,8 +3356,12 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.497878736991648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>102</v>
       </c>
@@ -2935,8 +3383,12 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1301285152018337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>43</v>
       </c>
@@ -2958,8 +3410,12 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0265441531176811</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>43</v>
       </c>
@@ -2981,8 +3437,12 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <f t="shared" ca="1" si="1"/>
+        <v>93.972074457473994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>273</v>
       </c>
@@ -3004,8 +3464,12 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9522072849586207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>42</v>
       </c>
@@ -3027,8 +3491,12 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.363955746659453</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>42</v>
       </c>
@@ -3050,8 +3518,12 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <f t="shared" ca="1" si="1"/>
+        <v>58.549595307854297</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>41</v>
       </c>
@@ -3073,8 +3545,12 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.869378148288703</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>41</v>
       </c>
@@ -3096,8 +3572,12 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7327516941017898</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>101</v>
       </c>
@@ -3119,8 +3599,12 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <f t="shared" ca="1" si="1"/>
+        <v>58.622530449020516</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>42</v>
       </c>
@@ -3142,8 +3626,12 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <f t="shared" ca="1" si="1"/>
+        <v>71.536407193459155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>169</v>
       </c>
@@ -3165,8 +3653,12 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.743166051726138</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>168</v>
       </c>
@@ -3188,8 +3680,12 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.862184673013314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>102</v>
       </c>
@@ -3211,8 +3707,12 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125">
+        <f t="shared" ca="1" si="1"/>
+        <v>88.727338664174894</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>304</v>
       </c>
@@ -3234,8 +3734,12 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126">
+        <f t="shared" ca="1" si="1"/>
+        <v>56.458344662822398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>304</v>
       </c>
@@ -3257,8 +3761,12 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127">
+        <f t="shared" ca="1" si="1"/>
+        <v>50.362003050950968</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>170</v>
       </c>
@@ -3280,8 +3788,12 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.10522643519225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>284</v>
       </c>
@@ -3303,8 +3815,12 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129">
+        <f t="shared" ca="1" si="1"/>
+        <v>51.654561760254516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>172</v>
       </c>
@@ -3326,8 +3842,12 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130">
+        <f t="shared" ref="H130:H193" ca="1" si="2">RAND()*100</f>
+        <v>81.078490521577834</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>282</v>
       </c>
@@ -3349,8 +3869,12 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131">
+        <f t="shared" ca="1" si="2"/>
+        <v>22.211452144096544</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>284</v>
       </c>
@@ -3372,8 +3896,12 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132">
+        <f t="shared" ca="1" si="2"/>
+        <v>51.816952349510558</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>171</v>
       </c>
@@ -3395,8 +3923,12 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133">
+        <f t="shared" ca="1" si="2"/>
+        <v>88.569035277409185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>217</v>
       </c>
@@ -3418,8 +3950,12 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134">
+        <f t="shared" ca="1" si="2"/>
+        <v>58.763262159868987</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>286</v>
       </c>
@@ -3441,8 +3977,12 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6691608858573579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>173</v>
       </c>
@@ -3464,8 +4004,12 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.57308301478669</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>173</v>
       </c>
@@ -3487,8 +4031,12 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137">
+        <f t="shared" ca="1" si="2"/>
+        <v>84.314140985177076</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>174</v>
       </c>
@@ -3510,8 +4058,12 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.769460826989381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>287</v>
       </c>
@@ -3533,8 +4085,12 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139">
+        <f t="shared" ca="1" si="2"/>
+        <v>90.455223978899568</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>221</v>
       </c>
@@ -3556,8 +4112,12 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <f t="shared" ca="1" si="2"/>
+        <v>50.002615005190677</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>221</v>
       </c>
@@ -3579,8 +4139,12 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <f t="shared" ca="1" si="2"/>
+        <v>46.505579649557696</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>221</v>
       </c>
@@ -3602,8 +4166,12 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.624809480429896</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>223</v>
       </c>
@@ -3625,8 +4193,12 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <f t="shared" ca="1" si="2"/>
+        <v>24.172712619967506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>222</v>
       </c>
@@ -3648,8 +4220,12 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <f t="shared" ca="1" si="2"/>
+        <v>98.803767963747063</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>223</v>
       </c>
@@ -3671,8 +4247,12 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <f t="shared" ca="1" si="2"/>
+        <v>99.006163234482983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>226</v>
       </c>
@@ -3694,8 +4274,12 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.306973418587823</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>290</v>
       </c>
@@ -3717,8 +4301,12 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.657010979925708</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>290</v>
       </c>
@@ -3740,8 +4328,12 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <f t="shared" ca="1" si="2"/>
+        <v>45.119619450869685</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>227</v>
       </c>
@@ -3763,8 +4355,12 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.302716043114174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>229</v>
       </c>
@@ -3786,8 +4382,12 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <f t="shared" ca="1" si="2"/>
+        <v>58.62167264324674</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>291</v>
       </c>
@@ -3809,8 +4409,12 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.772973461768425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>266</v>
       </c>
@@ -3832,8 +4436,12 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <f t="shared" ca="1" si="2"/>
+        <v>71.086696472204352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>265</v>
       </c>
@@ -3855,8 +4463,12 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <f t="shared" ca="1" si="2"/>
+        <v>95.127113414890616</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>222</v>
       </c>
@@ -3878,8 +4490,12 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154">
+        <f t="shared" ca="1" si="2"/>
+        <v>69.213028957327879</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>224</v>
       </c>
@@ -3901,8 +4517,12 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155">
+        <f t="shared" ca="1" si="2"/>
+        <v>59.969658083793917</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>225</v>
       </c>
@@ -3924,8 +4544,12 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6288222597903763</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>225</v>
       </c>
@@ -3947,8 +4571,12 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157">
+        <f t="shared" ca="1" si="2"/>
+        <v>71.109319275033911</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>219</v>
       </c>
@@ -3970,8 +4598,12 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158">
+        <f t="shared" ca="1" si="2"/>
+        <v>73.755927508963339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>218</v>
       </c>
@@ -3993,8 +4625,12 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8793091810219948</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>218</v>
       </c>
@@ -4016,8 +4652,12 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.792580972297529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>173</v>
       </c>
@@ -4039,8 +4679,12 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.818352356344882</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>167</v>
       </c>
@@ -4062,16 +4706,24 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162">
+        <f t="shared" ca="1" si="2"/>
+        <v>32.235894762628284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="C163">
         <v>163</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.792585139577827</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>214</v>
       </c>
@@ -4093,8 +4745,12 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0111341979925497</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>215</v>
       </c>
@@ -4116,8 +4772,12 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165">
+        <f t="shared" ca="1" si="2"/>
+        <v>75.805693453853578</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>215</v>
       </c>
@@ -4139,8 +4799,12 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166">
+        <f t="shared" ca="1" si="2"/>
+        <v>27.512946205349042</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>262</v>
       </c>
@@ -4162,8 +4826,12 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.482483938738227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>214</v>
       </c>
@@ -4185,8 +4853,12 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.864788536346936</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>263</v>
       </c>
@@ -4208,8 +4880,12 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169">
+        <f t="shared" ca="1" si="2"/>
+        <v>36.635952959344721</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>216</v>
       </c>
@@ -4231,8 +4907,12 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.983499184901341</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>171</v>
       </c>
@@ -4254,8 +4934,12 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.725357853151831</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>264</v>
       </c>
@@ -4277,8 +4961,12 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172">
+        <f t="shared" ca="1" si="2"/>
+        <v>81.436835819672453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>264</v>
       </c>
@@ -4300,8 +4988,12 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.478035089534757</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>262</v>
       </c>
@@ -4323,8 +5015,12 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174">
+        <f t="shared" ca="1" si="2"/>
+        <v>51.360149379200024</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>261</v>
       </c>
@@ -4346,8 +5042,12 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6738674575884311</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>165</v>
       </c>
@@ -4369,8 +5069,12 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176">
+        <f t="shared" ca="1" si="2"/>
+        <v>57.96879378062075</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>165</v>
       </c>
@@ -4392,8 +5096,12 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.061961828523078</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>167</v>
       </c>
@@ -4415,8 +5123,12 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178">
+        <f t="shared" ca="1" si="2"/>
+        <v>54.821059553552843</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>303</v>
       </c>
@@ -4438,8 +5150,12 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179">
+        <f t="shared" ca="1" si="2"/>
+        <v>68.998653435656379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>101</v>
       </c>
@@ -4461,8 +5177,12 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6263873344578492</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>165</v>
       </c>
@@ -4484,8 +5204,12 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <f t="shared" ca="1" si="2"/>
+        <v>80.560837126378644</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>211</v>
       </c>
@@ -4507,8 +5231,12 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <f t="shared" ca="1" si="2"/>
+        <v>99.210031920384949</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>211</v>
       </c>
@@ -4530,8 +5258,12 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183">
+        <f t="shared" ca="1" si="2"/>
+        <v>67.342062452340286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>212</v>
       </c>
@@ -4553,8 +5285,12 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.724926345742947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>213</v>
       </c>
@@ -4576,8 +5312,12 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185">
+        <f t="shared" ca="1" si="2"/>
+        <v>76.068244322228153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>213</v>
       </c>
@@ -4599,8 +5339,12 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186">
+        <f t="shared" ca="1" si="2"/>
+        <v>81.931604052796473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>259</v>
       </c>
@@ -4622,8 +5366,12 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.391923402264432</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>212</v>
       </c>
@@ -4645,8 +5393,12 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188">
+        <f t="shared" ca="1" si="2"/>
+        <v>50.0135361289651</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>256</v>
       </c>
@@ -4668,8 +5420,12 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189">
+        <f t="shared" ca="1" si="2"/>
+        <v>48.914680638821849</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>209</v>
       </c>
@@ -4691,8 +5447,12 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.071779438769873</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>210</v>
       </c>
@@ -4714,8 +5474,12 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191">
+        <f t="shared" ca="1" si="2"/>
+        <v>93.043158916349569</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4737,8 +5501,12 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192">
+        <f t="shared" ca="1" si="2"/>
+        <v>71.812118463812638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>292</v>
       </c>
@@ -4760,8 +5528,12 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.362298586867233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>292</v>
       </c>
@@ -4783,8 +5555,12 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194">
+        <f t="shared" ref="H194:H257" ca="1" si="3">RAND()*100</f>
+        <v>26.97809369155415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>254</v>
       </c>
@@ -4806,8 +5582,12 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.817565988027738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>255</v>
       </c>
@@ -4829,8 +5609,12 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.376644966740804</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>258</v>
       </c>
@@ -4852,8 +5636,12 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197">
+        <f t="shared" ca="1" si="3"/>
+        <v>98.895364284525684</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>257</v>
       </c>
@@ -4875,8 +5663,12 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198">
+        <f t="shared" ca="1" si="3"/>
+        <v>87.946411596160658</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>257</v>
       </c>
@@ -4898,8 +5690,12 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.87210977839647</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>259</v>
       </c>
@@ -4921,8 +5717,12 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.432576746744132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>258</v>
       </c>
@@ -4944,8 +5744,12 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.648665703268946</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>260</v>
       </c>
@@ -4967,8 +5771,12 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202">
+        <f t="shared" ca="1" si="3"/>
+        <v>75.548079326562998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>209</v>
       </c>
@@ -4990,8 +5798,12 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.889911982323312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>253</v>
       </c>
@@ -5013,8 +5825,12 @@
       <c r="G204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204">
+        <f t="shared" ca="1" si="3"/>
+        <v>87.859281086436496</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>163</v>
       </c>
@@ -5036,8 +5852,12 @@
       <c r="G205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.836743193426269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>253</v>
       </c>
@@ -5059,8 +5879,12 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.676402039871405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>208</v>
       </c>
@@ -5082,8 +5906,12 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207">
+        <f t="shared" ca="1" si="3"/>
+        <v>90.335809902611203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>252</v>
       </c>
@@ -5105,8 +5933,12 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6093732503476303</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>162</v>
       </c>
@@ -5128,8 +5960,12 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0966377213859229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>161</v>
       </c>
@@ -5151,8 +5987,12 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210">
+        <f t="shared" ca="1" si="3"/>
+        <v>80.167496590858249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>126</v>
       </c>
@@ -5174,8 +6014,12 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211">
+        <f t="shared" ca="1" si="3"/>
+        <v>65.892987141610391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>126</v>
       </c>
@@ -5197,8 +6041,12 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212">
+        <f t="shared" ca="1" si="3"/>
+        <v>72.89048909031996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>97</v>
       </c>
@@ -5220,8 +6068,12 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <f t="shared" ca="1" si="3"/>
+        <v>83.402865560179478</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>38</v>
       </c>
@@ -5243,8 +6095,12 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <f t="shared" ca="1" si="3"/>
+        <v>61.19010184396366</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>38</v>
       </c>
@@ -5266,8 +6122,12 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <f t="shared" ca="1" si="3"/>
+        <v>94.792803465886323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>39</v>
       </c>
@@ -5289,8 +6149,12 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <f t="shared" ca="1" si="3"/>
+        <v>82.67809235162666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>98</v>
       </c>
@@ -5312,8 +6176,12 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.59884586728262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>99</v>
       </c>
@@ -5335,8 +6203,12 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <f t="shared" ca="1" si="3"/>
+        <v>55.702402470237026</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>100</v>
       </c>
@@ -5358,8 +6230,12 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.12966792503822</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>100</v>
       </c>
@@ -5381,8 +6257,12 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220">
+        <f t="shared" ca="1" si="3"/>
+        <v>47.541625591502502</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>127</v>
       </c>
@@ -5404,8 +6284,12 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221">
+        <f t="shared" ca="1" si="3"/>
+        <v>77.794696847787904</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>128</v>
       </c>
@@ -5427,8 +6311,12 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.609042281721564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="C223">
         <v>223</v>
       </c>
@@ -5438,8 +6326,12 @@
       <c r="G223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223">
+        <f t="shared" ca="1" si="3"/>
+        <v>72.734672619384241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>163</v>
       </c>
@@ -5461,8 +6353,12 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.296555795793243</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>99</v>
       </c>
@@ -5484,8 +6380,12 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.056400302081414</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>162</v>
       </c>
@@ -5507,8 +6407,12 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226">
+        <f t="shared" ca="1" si="3"/>
+        <v>98.941891683040282</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>162</v>
       </c>
@@ -5530,8 +6434,12 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1554871103535973</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>207</v>
       </c>
@@ -5553,8 +6461,12 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.969082673318404</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>215</v>
       </c>
@@ -5576,8 +6488,12 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229">
+        <f t="shared" ca="1" si="3"/>
+        <v>71.436148860663849</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>252</v>
       </c>
@@ -5599,8 +6515,12 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230">
+        <f t="shared" ca="1" si="3"/>
+        <v>83.996110304542682</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>251</v>
       </c>
@@ -5622,8 +6542,12 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4609836027489926</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>250</v>
       </c>
@@ -5645,8 +6569,12 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232">
+        <f t="shared" ca="1" si="3"/>
+        <v>59.49958463482853</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>125</v>
       </c>
@@ -5668,8 +6596,12 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.341023670371481</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>95</v>
       </c>
@@ -5691,8 +6623,12 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234">
+        <f t="shared" ca="1" si="3"/>
+        <v>61.325773125585805</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>96</v>
       </c>
@@ -5714,8 +6650,12 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235">
+        <f t="shared" ca="1" si="3"/>
+        <v>91.585361630395695</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>96</v>
       </c>
@@ -5737,8 +6677,12 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236">
+        <f t="shared" ca="1" si="3"/>
+        <v>91.695564923695798</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>269</v>
       </c>
@@ -5760,8 +6704,12 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8213289287763113</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>15</v>
       </c>
@@ -5783,8 +6731,12 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.2397756905275577</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>160</v>
       </c>
@@ -5806,8 +6758,12 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239">
+        <f t="shared" ca="1" si="3"/>
+        <v>96.812967611832207</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>124</v>
       </c>
@@ -5829,8 +6785,12 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240">
+        <f t="shared" ca="1" si="3"/>
+        <v>79.639156314173221</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>125</v>
       </c>
@@ -5852,8 +6812,12 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241">
+        <f t="shared" ca="1" si="3"/>
+        <v>58.641165600319226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>160</v>
       </c>
@@ -5875,8 +6839,12 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1337466789747674</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>159</v>
       </c>
@@ -5898,8 +6866,12 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.652915118941102</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>94</v>
       </c>
@@ -5921,8 +6893,12 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.382745860241126</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>36</v>
       </c>
@@ -5944,8 +6920,12 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245">
+        <f t="shared" ca="1" si="3"/>
+        <v>93.792383280513903</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>14</v>
       </c>
@@ -5967,8 +6947,12 @@
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246">
+        <f t="shared" ca="1" si="3"/>
+        <v>14.742126360556451</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>37</v>
       </c>
@@ -5990,8 +6974,12 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247">
+        <f t="shared" ca="1" si="3"/>
+        <v>66.304411892091167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>35</v>
       </c>
@@ -6013,8 +7001,12 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248">
+        <f t="shared" ca="1" si="3"/>
+        <v>23.798046892408951</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>159</v>
       </c>
@@ -6036,8 +7028,12 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249">
+        <f t="shared" ca="1" si="3"/>
+        <v>89.523263715464267</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>206</v>
       </c>
@@ -6059,8 +7055,12 @@
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250">
+        <f t="shared" ca="1" si="3"/>
+        <v>61.463847314318485</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6082,8 +7082,12 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251">
+        <f t="shared" ca="1" si="3"/>
+        <v>98.277369604381306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>249</v>
       </c>
@@ -6105,8 +7109,12 @@
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252">
+        <f t="shared" ca="1" si="3"/>
+        <v>91.453644386261118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>248</v>
       </c>
@@ -6128,8 +7136,12 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253">
+        <f t="shared" ca="1" si="3"/>
+        <v>79.327261933449705</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>302</v>
       </c>
@@ -6151,8 +7163,12 @@
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.403580964367563</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>205</v>
       </c>
@@ -6174,8 +7190,12 @@
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255">
+        <f t="shared" ca="1" si="3"/>
+        <v>98.482290399324086</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>206</v>
       </c>
@@ -6197,8 +7217,12 @@
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256">
+        <f t="shared" ca="1" si="3"/>
+        <v>63.018605625929844</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>204</v>
       </c>
@@ -6220,8 +7244,12 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257">
+        <f t="shared" ca="1" si="3"/>
+        <v>48.41796814290479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>204</v>
       </c>
@@ -6243,8 +7271,12 @@
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258">
+        <f t="shared" ref="H258:H321" ca="1" si="4">RAND()*100</f>
+        <v>4.5853869338577713</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>205</v>
       </c>
@@ -6266,8 +7298,12 @@
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.220223407373734</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>158</v>
       </c>
@@ -6289,8 +7325,12 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260">
+        <f t="shared" ca="1" si="4"/>
+        <v>75.042639665073068</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>123</v>
       </c>
@@ -6312,8 +7352,12 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261">
+        <f t="shared" ca="1" si="4"/>
+        <v>36.424779462192838</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>124</v>
       </c>
@@ -6335,8 +7379,12 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262">
+        <f t="shared" ca="1" si="4"/>
+        <v>43.172010812015401</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>123</v>
       </c>
@@ -6358,8 +7406,12 @@
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263">
+        <f t="shared" ca="1" si="4"/>
+        <v>66.415016983464881</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>93</v>
       </c>
@@ -6381,8 +7433,12 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264">
+        <f t="shared" ca="1" si="4"/>
+        <v>65.788509841181948</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>94</v>
       </c>
@@ -6404,8 +7460,12 @@
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265">
+        <f t="shared" ca="1" si="4"/>
+        <v>36.458976342696893</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>35</v>
       </c>
@@ -6427,8 +7487,12 @@
       <c r="G266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266">
+        <f t="shared" ca="1" si="4"/>
+        <v>62.459745364963595</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>13</v>
       </c>
@@ -6450,8 +7514,12 @@
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267">
+        <f t="shared" ca="1" si="4"/>
+        <v>73.569117421154345</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>12</v>
       </c>
@@ -6473,8 +7541,12 @@
       <c r="G268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268">
+        <f t="shared" ca="1" si="4"/>
+        <v>53.356057104218515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>34</v>
       </c>
@@ -6496,8 +7568,12 @@
       <c r="G269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269">
+        <f t="shared" ca="1" si="4"/>
+        <v>27.372127487021835</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>34</v>
       </c>
@@ -6519,24 +7595,36 @@
       <c r="G270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270">
+        <f t="shared" ca="1" si="4"/>
+        <v>45.561454155945334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="C271">
         <v>271</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271">
+        <f t="shared" ca="1" si="4"/>
+        <v>30.787282452414576</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="C272">
         <v>272</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.256445558997683</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>92</v>
       </c>
@@ -6558,8 +7646,12 @@
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.752522436503234</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>307</v>
       </c>
@@ -6581,8 +7673,12 @@
       <c r="G274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274">
+        <f t="shared" ca="1" si="4"/>
+        <v>39.023400124936479</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>307</v>
       </c>
@@ -6604,8 +7700,12 @@
       <c r="G275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275">
+        <f t="shared" ca="1" si="4"/>
+        <v>48.789156957590784</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>305</v>
       </c>
@@ -6627,8 +7727,12 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.985367936354177</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>92</v>
       </c>
@@ -6650,8 +7754,12 @@
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277">
+        <f t="shared" ca="1" si="4"/>
+        <v>13.203831848478165</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>308</v>
       </c>
@@ -6673,8 +7781,12 @@
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278">
+        <f t="shared" ca="1" si="4"/>
+        <v>97.390762945540573</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>306</v>
       </c>
@@ -6696,8 +7808,12 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279">
+        <f t="shared" ca="1" si="4"/>
+        <v>97.975299731667903</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>122</v>
       </c>
@@ -6719,8 +7835,12 @@
       <c r="G280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.688598334878272</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>122</v>
       </c>
@@ -6742,8 +7862,12 @@
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281">
+        <f t="shared" ca="1" si="4"/>
+        <v>68.397193941356775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>158</v>
       </c>
@@ -6765,8 +7889,12 @@
       <c r="G282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282">
+        <f t="shared" ca="1" si="4"/>
+        <v>65.182472747294227</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>157</v>
       </c>
@@ -6788,8 +7916,12 @@
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283">
+        <f t="shared" ca="1" si="4"/>
+        <v>52.81149639964837</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>157</v>
       </c>
@@ -6811,8 +7943,12 @@
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284">
+        <f t="shared" ca="1" si="4"/>
+        <v>32.177478104854998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>96</v>
       </c>
@@ -6834,8 +7970,12 @@
       <c r="G285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285">
+        <f t="shared" ca="1" si="4"/>
+        <v>85.958766168345818</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>271</v>
       </c>
@@ -6857,8 +7997,12 @@
       <c r="G286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286">
+        <f t="shared" ca="1" si="4"/>
+        <v>51.035967744381992</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>270</v>
       </c>
@@ -6880,8 +8024,12 @@
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287">
+        <f t="shared" ca="1" si="4"/>
+        <v>63.97894043457849</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>16</v>
       </c>
@@ -6903,8 +8051,12 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288">
+        <f t="shared" ca="1" si="4"/>
+        <v>93.516416513683126</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>11</v>
       </c>
@@ -6926,8 +8078,12 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0899391780501588</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>33</v>
       </c>
@@ -6949,8 +8105,12 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290">
+        <f t="shared" ca="1" si="4"/>
+        <v>26.822274446317905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>32</v>
       </c>
@@ -6972,8 +8132,12 @@
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291">
+        <f t="shared" ca="1" si="4"/>
+        <v>78.960479361941381</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10</v>
       </c>
@@ -6995,8 +8159,12 @@
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292">
+        <f t="shared" ca="1" si="4"/>
+        <v>93.789152702870638</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>89</v>
       </c>
@@ -7018,8 +8186,12 @@
       <c r="G293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.353730841941669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>89</v>
       </c>
@@ -7041,8 +8213,12 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.910662155419043</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>91</v>
       </c>
@@ -7064,8 +8240,12 @@
       <c r="G295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295">
+        <f t="shared" ca="1" si="4"/>
+        <v>71.711151828365033</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>88</v>
       </c>
@@ -7087,8 +8267,12 @@
       <c r="G296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296">
+        <f t="shared" ca="1" si="4"/>
+        <v>43.300093115790425</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>88</v>
       </c>
@@ -7110,8 +8294,12 @@
       <c r="G297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297">
+        <f t="shared" ca="1" si="4"/>
+        <v>84.936913684062333</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>91</v>
       </c>
@@ -7133,8 +8321,12 @@
       <c r="G298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298">
+        <f t="shared" ca="1" si="4"/>
+        <v>58.90269539607025</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>91</v>
       </c>
@@ -7156,8 +8348,12 @@
       <c r="G299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.955831770658403</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>120</v>
       </c>
@@ -7179,8 +8375,12 @@
       <c r="G300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.558017125312384</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>119</v>
       </c>
@@ -7202,8 +8402,12 @@
       <c r="G301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301">
+        <f t="shared" ca="1" si="4"/>
+        <v>91.757513264968409</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>121</v>
       </c>
@@ -7225,8 +8429,12 @@
       <c r="G302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302">
+        <f t="shared" ca="1" si="4"/>
+        <v>59.116030758733253</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>122</v>
       </c>
@@ -7248,8 +8456,12 @@
       <c r="G303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303">
+        <f t="shared" ca="1" si="4"/>
+        <v>96.970980905334997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>121</v>
       </c>
@@ -7271,8 +8483,12 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304">
+        <f t="shared" ca="1" si="4"/>
+        <v>28.145080641985786</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>156</v>
       </c>
@@ -7294,8 +8510,12 @@
       <c r="G305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305">
+        <f t="shared" ca="1" si="4"/>
+        <v>62.886122501028396</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>155</v>
       </c>
@@ -7317,8 +8537,12 @@
       <c r="G306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306">
+        <f t="shared" ca="1" si="4"/>
+        <v>96.230336614798375</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>203</v>
       </c>
@@ -7340,8 +8564,12 @@
       <c r="G307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307">
+        <f t="shared" ca="1" si="4"/>
+        <v>48.647330023114996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>204</v>
       </c>
@@ -7363,8 +8591,12 @@
       <c r="G308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308">
+        <f t="shared" ca="1" si="4"/>
+        <v>56.474294992998196</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>247</v>
       </c>
@@ -7386,8 +8618,12 @@
       <c r="G309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309">
+        <f t="shared" ca="1" si="4"/>
+        <v>80.065495899370703</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>248</v>
       </c>
@@ -7409,8 +8645,12 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310">
+        <f t="shared" ca="1" si="4"/>
+        <v>45.892337740674606</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>203</v>
       </c>
@@ -7432,8 +8672,12 @@
       <c r="G311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.1268884834447377</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>202</v>
       </c>
@@ -7455,8 +8699,12 @@
       <c r="G312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312">
+        <f t="shared" ca="1" si="4"/>
+        <v>76.280876135216673</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>301</v>
       </c>
@@ -7478,8 +8726,12 @@
       <c r="G313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313">
+        <f t="shared" ca="1" si="4"/>
+        <v>80.000814121808901</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>246</v>
       </c>
@@ -7501,8 +8753,12 @@
       <c r="G314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314">
+        <f t="shared" ca="1" si="4"/>
+        <v>59.315959055776055</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>155</v>
       </c>
@@ -7524,8 +8780,12 @@
       <c r="G315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.522426985682536</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>246</v>
       </c>
@@ -7547,8 +8807,12 @@
       <c r="G316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316">
+        <f t="shared" ca="1" si="4"/>
+        <v>55.748118560769633</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>245</v>
       </c>
@@ -7570,8 +8834,12 @@
       <c r="G317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317">
+        <f t="shared" ca="1" si="4"/>
+        <v>92.447521286454901</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>202</v>
       </c>
@@ -7593,8 +8861,12 @@
       <c r="G318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318">
+        <f t="shared" ca="1" si="4"/>
+        <v>34.936193548196748</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>201</v>
       </c>
@@ -7616,8 +8888,12 @@
       <c r="G319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319">
+        <f t="shared" ca="1" si="4"/>
+        <v>68.643127173303256</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>201</v>
       </c>
@@ -7639,8 +8915,12 @@
       <c r="G320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5504679558751344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>150</v>
       </c>
@@ -7662,8 +8942,12 @@
       <c r="G321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321">
+        <f t="shared" ca="1" si="4"/>
+        <v>41.495784416235601</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>153</v>
       </c>
@@ -7685,8 +8969,12 @@
       <c r="G322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322">
+        <f t="shared" ref="H322:H385" ca="1" si="5">RAND()*100</f>
+        <v>99.606878591830366</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>153</v>
       </c>
@@ -7708,8 +8996,12 @@
       <c r="G323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323">
+        <f t="shared" ca="1" si="5"/>
+        <v>75.319455357646603</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>151</v>
       </c>
@@ -7731,8 +9023,12 @@
       <c r="G324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324">
+        <f t="shared" ca="1" si="5"/>
+        <v>69.363322347439123</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>152</v>
       </c>
@@ -7754,8 +9050,12 @@
       <c r="G325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325">
+        <f t="shared" ca="1" si="5"/>
+        <v>78.146683246935112</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>117</v>
       </c>
@@ -7777,8 +9077,12 @@
       <c r="G326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326">
+        <f t="shared" ca="1" si="5"/>
+        <v>55.497949007497468</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>154</v>
       </c>
@@ -7800,8 +9104,12 @@
       <c r="G327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.076469397354913</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>154</v>
       </c>
@@ -7823,8 +9131,12 @@
       <c r="G328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328">
+        <f t="shared" ca="1" si="5"/>
+        <v>32.053554067084391</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>118</v>
       </c>
@@ -7846,8 +9158,12 @@
       <c r="G329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7754503903502314</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>117</v>
       </c>
@@ -7869,8 +9185,12 @@
       <c r="G330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.027810308900285</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>87</v>
       </c>
@@ -7892,8 +9212,12 @@
       <c r="G331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331">
+        <f t="shared" ca="1" si="5"/>
+        <v>71.882825400041867</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>87</v>
       </c>
@@ -7915,8 +9239,12 @@
       <c r="G332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.836442567435004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>86</v>
       </c>
@@ -7938,8 +9266,12 @@
       <c r="G333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333">
+        <f t="shared" ca="1" si="5"/>
+        <v>76.390004204508884</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>86</v>
       </c>
@@ -7961,8 +9293,12 @@
       <c r="G334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.885765639032819</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>31</v>
       </c>
@@ -7984,8 +9320,12 @@
       <c r="G335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335">
+        <f t="shared" ca="1" si="5"/>
+        <v>63.691135637402965</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>9</v>
       </c>
@@ -8007,8 +9347,12 @@
       <c r="G336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336">
+        <f t="shared" ca="1" si="5"/>
+        <v>82.7357050240051</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>90</v>
       </c>
@@ -8030,8 +9374,12 @@
       <c r="G337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1382796520120007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>30</v>
       </c>
@@ -8053,8 +9401,12 @@
       <c r="G338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338">
+        <f t="shared" ca="1" si="5"/>
+        <v>75.828283817360003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>84</v>
       </c>
@@ -8076,8 +9428,12 @@
       <c r="G339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339">
+        <f t="shared" ca="1" si="5"/>
+        <v>31.66310531175651</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>31</v>
       </c>
@@ -8099,8 +9455,12 @@
       <c r="G340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340">
+        <f t="shared" ca="1" si="5"/>
+        <v>26.629627453186831</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>85</v>
       </c>
@@ -8122,8 +9482,12 @@
       <c r="G341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341">
+        <f t="shared" ca="1" si="5"/>
+        <v>32.902472568191399</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>82</v>
       </c>
@@ -8145,8 +9509,12 @@
       <c r="G342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3897376180492529</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>83</v>
       </c>
@@ -8168,8 +9536,12 @@
       <c r="G343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343">
+        <f t="shared" ca="1" si="5"/>
+        <v>62.591202512830705</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>83</v>
       </c>
@@ -8191,8 +9563,12 @@
       <c r="G344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.483324304051223</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>114</v>
       </c>
@@ -8214,8 +9590,12 @@
       <c r="G345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345">
+        <f t="shared" ca="1" si="5"/>
+        <v>54.569988366980006</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>115</v>
       </c>
@@ -8237,8 +9617,12 @@
       <c r="G346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346">
+        <f t="shared" ca="1" si="5"/>
+        <v>81.03110678519802</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>85</v>
       </c>
@@ -8260,8 +9644,12 @@
       <c r="G347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347">
+        <f t="shared" ca="1" si="5"/>
+        <v>64.553148477385008</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>293</v>
       </c>
@@ -8283,8 +9671,12 @@
       <c r="G348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24618968023701893</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>115</v>
       </c>
@@ -8306,8 +9698,12 @@
       <c r="G349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349">
+        <f t="shared" ca="1" si="5"/>
+        <v>77.214151580070563</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>148</v>
       </c>
@@ -8329,8 +9725,12 @@
       <c r="G350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350">
+        <f t="shared" ca="1" si="5"/>
+        <v>57.598464093977007</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>149</v>
       </c>
@@ -8352,8 +9752,12 @@
       <c r="G351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351">
+        <f t="shared" ca="1" si="5"/>
+        <v>33.29041536132695</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>150</v>
       </c>
@@ -8375,8 +9779,12 @@
       <c r="G352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352">
+        <f t="shared" ca="1" si="5"/>
+        <v>66.591779680212397</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>160</v>
       </c>
@@ -8398,8 +9806,12 @@
       <c r="G353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353">
+        <f t="shared" ca="1" si="5"/>
+        <v>70.862497481565271</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>116</v>
       </c>
@@ -8421,8 +9833,12 @@
       <c r="G354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354">
+        <f t="shared" ca="1" si="5"/>
+        <v>69.689943652475833</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>151</v>
       </c>
@@ -8444,8 +9860,12 @@
       <c r="G355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355">
+        <f t="shared" ca="1" si="5"/>
+        <v>77.253725692614708</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>243</v>
       </c>
@@ -8467,8 +9887,12 @@
       <c r="G356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356">
+        <f t="shared" ca="1" si="5"/>
+        <v>94.489872283488111</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>300</v>
       </c>
@@ -8490,8 +9914,12 @@
       <c r="G357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357">
+        <f t="shared" ca="1" si="5"/>
+        <v>53.831935751224094</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>200</v>
       </c>
@@ -8513,8 +9941,12 @@
       <c r="G358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358">
+        <f t="shared" ca="1" si="5"/>
+        <v>43.484518469462941</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>114</v>
       </c>
@@ -8536,8 +9968,12 @@
       <c r="G359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359">
+        <f t="shared" ca="1" si="5"/>
+        <v>82.906009979335607</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>144</v>
       </c>
@@ -8559,8 +9995,12 @@
       <c r="G360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360">
+        <f t="shared" ca="1" si="5"/>
+        <v>95.561426577368309</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>143</v>
       </c>
@@ -8582,8 +10022,12 @@
       <c r="G361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.00683048573508</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>145</v>
       </c>
@@ -8605,8 +10049,12 @@
       <c r="G362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362">
+        <f t="shared" ca="1" si="5"/>
+        <v>58.064994472499606</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>146</v>
       </c>
@@ -8628,8 +10076,12 @@
       <c r="G363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363">
+        <f t="shared" ca="1" si="5"/>
+        <v>89.833889706821793</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>147</v>
       </c>
@@ -8651,8 +10103,12 @@
       <c r="G364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364">
+        <f t="shared" ca="1" si="5"/>
+        <v>89.628110881079465</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>149</v>
       </c>
@@ -8674,8 +10130,12 @@
       <c r="G365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.61011640571845</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>141</v>
       </c>
@@ -8697,8 +10157,12 @@
       <c r="G366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366">
+        <f t="shared" ca="1" si="5"/>
+        <v>60.016028350064019</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>146</v>
       </c>
@@ -8720,8 +10184,12 @@
       <c r="G367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.780984856349349</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>147</v>
       </c>
@@ -8743,8 +10211,12 @@
       <c r="G368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.897132930216657</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>299</v>
       </c>
@@ -8766,8 +10238,12 @@
       <c r="G369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369">
+        <f t="shared" ca="1" si="5"/>
+        <v>56.992572224871822</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>199</v>
       </c>
@@ -8789,8 +10265,12 @@
       <c r="G370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370">
+        <f t="shared" ca="1" si="5"/>
+        <v>95.103037667877459</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>200</v>
       </c>
@@ -8812,8 +10292,12 @@
       <c r="G371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371">
+        <f t="shared" ca="1" si="5"/>
+        <v>78.215730761256125</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>243</v>
       </c>
@@ -8835,8 +10319,12 @@
       <c r="G372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.700973339466998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>244</v>
       </c>
@@ -8858,8 +10346,12 @@
       <c r="G373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373">
+        <f t="shared" ca="1" si="5"/>
+        <v>61.487338512753318</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>244</v>
       </c>
@@ -8881,8 +10373,12 @@
       <c r="G374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.722290613026715</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>241</v>
       </c>
@@ -8904,8 +10400,12 @@
       <c r="G375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375">
+        <f t="shared" ca="1" si="5"/>
+        <v>36.12280777572029</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>242</v>
       </c>
@@ -8927,8 +10427,12 @@
       <c r="G376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376">
+        <f t="shared" ca="1" si="5"/>
+        <v>74.337017845379719</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>240</v>
       </c>
@@ -8950,8 +10454,12 @@
       <c r="G377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.205715878428826</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>198</v>
       </c>
@@ -8973,8 +10481,12 @@
       <c r="G378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7165306027180813</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>199</v>
       </c>
@@ -8996,8 +10508,12 @@
       <c r="G379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379">
+        <f t="shared" ca="1" si="5"/>
+        <v>33.688530906585342</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>198</v>
       </c>
@@ -9019,8 +10535,12 @@
       <c r="G380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380">
+        <f t="shared" ca="1" si="5"/>
+        <v>89.546919494104714</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>142</v>
       </c>
@@ -9042,8 +10562,12 @@
       <c r="G381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5578363159894026</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>142</v>
       </c>
@@ -9065,8 +10589,12 @@
       <c r="G382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382">
+        <f t="shared" ca="1" si="5"/>
+        <v>95.827921412919721</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>113</v>
       </c>
@@ -9088,8 +10616,12 @@
       <c r="G383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383">
+        <f t="shared" ca="1" si="5"/>
+        <v>66.578967410188525</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>81</v>
       </c>
@@ -9111,8 +10643,12 @@
       <c r="G384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384">
+        <f t="shared" ca="1" si="5"/>
+        <v>72.800380562926648</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>82</v>
       </c>
@@ -9134,8 +10670,12 @@
       <c r="G385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.487536893787578</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>29</v>
       </c>
@@ -9157,8 +10697,12 @@
       <c r="G386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386">
+        <f t="shared" ref="H386:H449" ca="1" si="6">RAND()*100</f>
+        <v>28.644112381126231</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>29</v>
       </c>
@@ -9180,8 +10724,12 @@
       <c r="G387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9696296171568326</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>7</v>
       </c>
@@ -9203,8 +10751,12 @@
       <c r="G388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2278954786636662</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>139</v>
       </c>
@@ -9226,8 +10778,12 @@
       <c r="G389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.504752557987096</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>112</v>
       </c>
@@ -9249,8 +10805,12 @@
       <c r="G390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390">
+        <f t="shared" ca="1" si="6"/>
+        <v>78.79503952497501</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>240</v>
       </c>
@@ -9272,8 +10832,12 @@
       <c r="G391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391">
+        <f t="shared" ca="1" si="6"/>
+        <v>38.683261772401124</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>239</v>
       </c>
@@ -9295,8 +10859,12 @@
       <c r="G392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392">
+        <f t="shared" ca="1" si="6"/>
+        <v>26.810015791466334</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>297</v>
       </c>
@@ -9318,8 +10886,12 @@
       <c r="G393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393">
+        <f t="shared" ca="1" si="6"/>
+        <v>96.666716311267649</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>197</v>
       </c>
@@ -9341,8 +10913,12 @@
       <c r="G394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394">
+        <f t="shared" ca="1" si="6"/>
+        <v>79.409876352212251</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>138</v>
       </c>
@@ -9364,8 +10940,12 @@
       <c r="G395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395">
+        <f t="shared" ca="1" si="6"/>
+        <v>46.162917549246487</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>141</v>
       </c>
@@ -9387,8 +10967,12 @@
       <c r="G396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.8004706496430711</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>138</v>
       </c>
@@ -9410,8 +10994,12 @@
       <c r="G397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397">
+        <f t="shared" ca="1" si="6"/>
+        <v>17.189919672335808</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>137</v>
       </c>
@@ -9433,8 +11021,12 @@
       <c r="G398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398">
+        <f t="shared" ca="1" si="6"/>
+        <v>62.492861242738449</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>197</v>
       </c>
@@ -9456,8 +11048,12 @@
       <c r="G399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399">
+        <f t="shared" ca="1" si="6"/>
+        <v>25.400218936584594</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>238</v>
       </c>
@@ -9479,8 +11075,12 @@
       <c r="G400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400">
+        <f t="shared" ca="1" si="6"/>
+        <v>11.676039785668246</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>298</v>
       </c>
@@ -9502,8 +11102,12 @@
       <c r="G401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401">
+        <f t="shared" ca="1" si="6"/>
+        <v>77.801640254301404</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>196</v>
       </c>
@@ -9525,8 +11129,12 @@
       <c r="G402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402">
+        <f t="shared" ca="1" si="6"/>
+        <v>98.379319829234191</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>196</v>
       </c>
@@ -9548,8 +11156,12 @@
       <c r="G403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403">
+        <f t="shared" ca="1" si="6"/>
+        <v>46.063358483041782</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>137</v>
       </c>
@@ -9571,8 +11183,12 @@
       <c r="G404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404">
+        <f t="shared" ca="1" si="6"/>
+        <v>22.197483214380544</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>80</v>
       </c>
@@ -9594,8 +11210,12 @@
       <c r="G405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405">
+        <f t="shared" ca="1" si="6"/>
+        <v>17.86366164363017</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>81</v>
       </c>
@@ -9617,8 +11237,12 @@
       <c r="G406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.771257184286839</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>80</v>
       </c>
@@ -9640,8 +11264,12 @@
       <c r="G407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407">
+        <f t="shared" ca="1" si="6"/>
+        <v>34.195095332592871</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>28</v>
       </c>
@@ -9663,8 +11291,12 @@
       <c r="G408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408">
+        <f t="shared" ca="1" si="6"/>
+        <v>25.733694432459419</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>6</v>
       </c>
@@ -9686,8 +11318,12 @@
       <c r="G409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409">
+        <f t="shared" ca="1" si="6"/>
+        <v>38.983152786341734</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>27</v>
       </c>
@@ -9709,8 +11345,12 @@
       <c r="G410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410">
+        <f t="shared" ca="1" si="6"/>
+        <v>96.857746435682458</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>28</v>
       </c>
@@ -9732,8 +11372,12 @@
       <c r="G411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411">
+        <f t="shared" ca="1" si="6"/>
+        <v>82.057267168073437</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>27</v>
       </c>
@@ -9755,8 +11399,12 @@
       <c r="G412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.30412659991363</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>80</v>
       </c>
@@ -9778,8 +11426,12 @@
       <c r="G413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413">
+        <f t="shared" ca="1" si="6"/>
+        <v>62.201277737151358</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>79</v>
       </c>
@@ -9801,8 +11453,12 @@
       <c r="G414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414">
+        <f t="shared" ca="1" si="6"/>
+        <v>25.300334085284803</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>111</v>
       </c>
@@ -9824,8 +11480,12 @@
       <c r="G415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415">
+        <f t="shared" ca="1" si="6"/>
+        <v>51.077870751995803</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>111</v>
       </c>
@@ -9847,8 +11507,12 @@
       <c r="G416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416">
+        <f t="shared" ca="1" si="6"/>
+        <v>66.211812117193773</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>135</v>
       </c>
@@ -9870,8 +11534,12 @@
       <c r="G417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.180238252544839</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>137</v>
       </c>
@@ -9893,8 +11561,12 @@
       <c r="G418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.342384242308029</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>136</v>
       </c>
@@ -9916,10 +11588,14 @@
       <c r="G419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419">
+        <f t="shared" ca="1" si="6"/>
+        <v>93.876733224915327</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="B420">
         <v>196</v>
@@ -9939,8 +11615,12 @@
       <c r="G420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.850001644654267</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>194</v>
       </c>
@@ -9962,8 +11642,12 @@
       <c r="G421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.55942819184744419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>195</v>
       </c>
@@ -9985,8 +11669,12 @@
       <c r="G422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422">
+        <f t="shared" ca="1" si="6"/>
+        <v>15.243825292202439</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>194</v>
       </c>
@@ -10008,8 +11696,12 @@
       <c r="G423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423">
+        <f t="shared" ca="1" si="6"/>
+        <v>70.662100070193006</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>236</v>
       </c>
@@ -10031,8 +11723,12 @@
       <c r="G424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.720499168807592</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>237</v>
       </c>
@@ -10054,8 +11750,12 @@
       <c r="G425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425">
+        <f t="shared" ca="1" si="6"/>
+        <v>69.114487782924911</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>238</v>
       </c>
@@ -10077,8 +11777,12 @@
       <c r="G426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426">
+        <f t="shared" ca="1" si="6"/>
+        <v>12.440446727783394</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>268</v>
       </c>
@@ -10100,8 +11804,12 @@
       <c r="G427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.972499751502717</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>267</v>
       </c>
@@ -10123,8 +11831,12 @@
       <c r="G428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428">
+        <f t="shared" ca="1" si="6"/>
+        <v>13.197286981588686</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>26</v>
       </c>
@@ -10146,8 +11858,12 @@
       <c r="G429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429">
+        <f t="shared" ca="1" si="6"/>
+        <v>23.055718912862091</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>4</v>
       </c>
@@ -10169,8 +11885,12 @@
       <c r="G430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430">
+        <f t="shared" ca="1" si="6"/>
+        <v>98.633379583675378</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>77</v>
       </c>
@@ -10192,8 +11912,12 @@
       <c r="G431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431">
+        <f t="shared" ca="1" si="6"/>
+        <v>51.370844633250734</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>77</v>
       </c>
@@ -10215,8 +11939,12 @@
       <c r="G432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432">
+        <f t="shared" ca="1" si="6"/>
+        <v>55.411608515130652</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>296</v>
       </c>
@@ -10238,10 +11966,14 @@
       <c r="G433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.181121569189656</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B434">
         <v>296</v>
@@ -10261,8 +11993,12 @@
       <c r="G434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434">
+        <f t="shared" ca="1" si="6"/>
+        <v>36.497444827060562</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>78</v>
       </c>
@@ -10284,8 +12020,12 @@
       <c r="G435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435">
+        <f t="shared" ca="1" si="6"/>
+        <v>28.497389176079867</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>110</v>
       </c>
@@ -10307,8 +12047,12 @@
       <c r="G436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436">
+        <f t="shared" ca="1" si="6"/>
+        <v>22.729880085888443</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>140</v>
       </c>
@@ -10330,8 +12074,12 @@
       <c r="G437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437">
+        <f t="shared" ca="1" si="6"/>
+        <v>72.927142968768393</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>135</v>
       </c>
@@ -10353,8 +12101,12 @@
       <c r="G438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.070750494232023</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>140</v>
       </c>
@@ -10376,8 +12128,12 @@
       <c r="G439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.165146593628904</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>133</v>
       </c>
@@ -10399,8 +12155,12 @@
       <c r="G440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440">
+        <f t="shared" ca="1" si="6"/>
+        <v>54.968298342214361</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>134</v>
       </c>
@@ -10422,8 +12182,12 @@
       <c r="G441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441">
+        <f t="shared" ca="1" si="6"/>
+        <v>49.513587209242935</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>192</v>
       </c>
@@ -10445,8 +12209,12 @@
       <c r="G442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.527720052474621</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>193</v>
       </c>
@@ -10468,8 +12236,12 @@
       <c r="G443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443">
+        <f t="shared" ca="1" si="6"/>
+        <v>91.329172311859423</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>193</v>
       </c>
@@ -10491,8 +12263,12 @@
       <c r="G444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444">
+        <f t="shared" ca="1" si="6"/>
+        <v>88.372382537210171</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>134</v>
       </c>
@@ -10514,8 +12290,12 @@
       <c r="G445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445">
+        <f t="shared" ca="1" si="6"/>
+        <v>70.143284708172217</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>235</v>
       </c>
@@ -10537,8 +12317,12 @@
       <c r="G446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7668498550631497</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>236</v>
       </c>
@@ -10560,8 +12344,12 @@
       <c r="G447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447">
+        <f t="shared" ca="1" si="6"/>
+        <v>56.634127939560408</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>192</v>
       </c>
@@ -10583,8 +12371,12 @@
       <c r="G448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448">
+        <f t="shared" ca="1" si="6"/>
+        <v>25.987567939518097</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>234</v>
       </c>
@@ -10606,8 +12398,12 @@
       <c r="G449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449">
+        <f t="shared" ca="1" si="6"/>
+        <v>48.872730012384061</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>3</v>
       </c>
@@ -10629,8 +12425,12 @@
       <c r="G450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450">
+        <f t="shared" ref="H450:H497" ca="1" si="7">RAND()*100</f>
+        <v>34.128141554124383</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>25</v>
       </c>
@@ -10652,8 +12452,12 @@
       <c r="G451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451">
+        <f t="shared" ca="1" si="7"/>
+        <v>19.714053224235627</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>25</v>
       </c>
@@ -10675,8 +12479,12 @@
       <c r="G452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452">
+        <f t="shared" ca="1" si="7"/>
+        <v>73.365378053040757</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>76</v>
       </c>
@@ -10698,8 +12506,12 @@
       <c r="G453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453">
+        <f t="shared" ca="1" si="7"/>
+        <v>64.198537575065814</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>75</v>
       </c>
@@ -10721,8 +12533,12 @@
       <c r="G454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454">
+        <f t="shared" ca="1" si="7"/>
+        <v>99.323976487404394</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>294</v>
       </c>
@@ -10744,8 +12560,12 @@
       <c r="G455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455">
+        <f t="shared" ca="1" si="7"/>
+        <v>81.634269002158746</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>78</v>
       </c>
@@ -10767,8 +12587,12 @@
       <c r="G456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456">
+        <f t="shared" ca="1" si="7"/>
+        <v>33.316496461251731</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>295</v>
       </c>
@@ -10790,8 +12614,12 @@
       <c r="G457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457">
+        <f t="shared" ca="1" si="7"/>
+        <v>54.478247344485531</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>110</v>
       </c>
@@ -10813,8 +12641,12 @@
       <c r="G458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458">
+        <f t="shared" ca="1" si="7"/>
+        <v>11.877683386314963</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>295</v>
       </c>
@@ -10836,8 +12668,12 @@
       <c r="G459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459">
+        <f t="shared" ca="1" si="7"/>
+        <v>87.83377388060596</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>75</v>
       </c>
@@ -10859,8 +12695,12 @@
       <c r="G460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460">
+        <f t="shared" ca="1" si="7"/>
+        <v>20.399940735534273</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>132</v>
       </c>
@@ -10882,8 +12722,12 @@
       <c r="G461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461">
+        <f t="shared" ca="1" si="7"/>
+        <v>36.782309140066992</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>133</v>
       </c>
@@ -10905,8 +12749,12 @@
       <c r="G462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462">
+        <f t="shared" ca="1" si="7"/>
+        <v>55.445538049216438</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>132</v>
       </c>
@@ -10928,8 +12776,12 @@
       <c r="G463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463">
+        <f t="shared" ca="1" si="7"/>
+        <v>77.733471064526825</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>191</v>
       </c>
@@ -10951,8 +12803,12 @@
       <c r="G464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464">
+        <f t="shared" ca="1" si="7"/>
+        <v>34.436884732821028</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>233</v>
       </c>
@@ -10974,8 +12830,12 @@
       <c r="G465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465">
+        <f t="shared" ca="1" si="7"/>
+        <v>98.859386679875371</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>234</v>
       </c>
@@ -10997,8 +12857,12 @@
       <c r="G466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466">
+        <f t="shared" ca="1" si="7"/>
+        <v>53.365846376102034</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>232</v>
       </c>
@@ -11020,8 +12884,12 @@
       <c r="G467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467">
+        <f t="shared" ca="1" si="7"/>
+        <v>12.769847700284465</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>108</v>
       </c>
@@ -11043,8 +12911,12 @@
       <c r="G468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468">
+        <f t="shared" ca="1" si="7"/>
+        <v>23.975973608867641</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>109</v>
       </c>
@@ -11066,8 +12938,12 @@
       <c r="G469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469">
+        <f t="shared" ca="1" si="7"/>
+        <v>51.688978854841572</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>131</v>
       </c>
@@ -11089,8 +12965,12 @@
       <c r="G470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470">
+        <f t="shared" ca="1" si="7"/>
+        <v>79.874101421932821</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>190</v>
       </c>
@@ -11112,8 +12992,12 @@
       <c r="G471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471">
+        <f t="shared" ca="1" si="7"/>
+        <v>88.218882434479369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>191</v>
       </c>
@@ -11135,8 +13019,12 @@
       <c r="G472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472">
+        <f t="shared" ca="1" si="7"/>
+        <v>47.758344561662149</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>232</v>
       </c>
@@ -11158,8 +13046,12 @@
       <c r="G473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473">
+        <f t="shared" ca="1" si="7"/>
+        <v>54.449564175760933</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>231</v>
       </c>
@@ -11181,8 +13073,12 @@
       <c r="G474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474">
+        <f t="shared" ca="1" si="7"/>
+        <v>96.243337433234615</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>190</v>
       </c>
@@ -11204,8 +13100,12 @@
       <c r="G475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475">
+        <f t="shared" ca="1" si="7"/>
+        <v>37.792260255959434</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>189</v>
       </c>
@@ -11227,8 +13127,12 @@
       <c r="G476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476">
+        <f t="shared" ca="1" si="7"/>
+        <v>82.39091645327521</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>131</v>
       </c>
@@ -11250,8 +13154,12 @@
       <c r="G477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477">
+        <f t="shared" ca="1" si="7"/>
+        <v>90.718505818250549</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>188</v>
       </c>
@@ -11273,8 +13181,12 @@
       <c r="G478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478">
+        <f t="shared" ca="1" si="7"/>
+        <v>38.782031343109594</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>189</v>
       </c>
@@ -11296,8 +13208,12 @@
       <c r="G479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479">
+        <f t="shared" ca="1" si="7"/>
+        <v>77.851535149024926</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>130</v>
       </c>
@@ -11319,8 +13235,12 @@
       <c r="G480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480">
+        <f t="shared" ca="1" si="7"/>
+        <v>94.458621817090645</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>188</v>
       </c>
@@ -11342,8 +13262,12 @@
       <c r="G481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481">
+        <f t="shared" ca="1" si="7"/>
+        <v>82.46484015282563</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>129</v>
       </c>
@@ -11365,8 +13289,12 @@
       <c r="G482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482">
+        <f t="shared" ca="1" si="7"/>
+        <v>61.339752554932083</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>130</v>
       </c>
@@ -11388,8 +13316,12 @@
       <c r="G483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483">
+        <f t="shared" ca="1" si="7"/>
+        <v>53.077851093171013</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>74</v>
       </c>
@@ -11411,8 +13343,12 @@
       <c r="G484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484">
+        <f t="shared" ca="1" si="7"/>
+        <v>32.118750414473254</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>75</v>
       </c>
@@ -11434,8 +13370,12 @@
       <c r="G485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485">
+        <f t="shared" ca="1" si="7"/>
+        <v>66.795762161180477</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>24</v>
       </c>
@@ -11457,8 +13397,12 @@
       <c r="G486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486">
+        <f t="shared" ca="1" si="7"/>
+        <v>55.860413358699823</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>25</v>
       </c>
@@ -11480,8 +13424,12 @@
       <c r="G487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487">
+        <f t="shared" ca="1" si="7"/>
+        <v>34.727304026978231</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>24</v>
       </c>
@@ -11503,8 +13451,12 @@
       <c r="G488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488">
+        <f t="shared" ca="1" si="7"/>
+        <v>74.18918039141461</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>129</v>
       </c>
@@ -11526,8 +13478,12 @@
       <c r="G489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489">
+        <f t="shared" ca="1" si="7"/>
+        <v>82.172479770053059</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>108</v>
       </c>
@@ -11549,8 +13505,12 @@
       <c r="G490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490">
+        <f t="shared" ca="1" si="7"/>
+        <v>23.978447230480771</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>107</v>
       </c>
@@ -11572,8 +13532,12 @@
       <c r="G491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491">
+        <f t="shared" ca="1" si="7"/>
+        <v>86.186695507385664</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>73</v>
       </c>
@@ -11595,8 +13559,12 @@
       <c r="G492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492">
+        <f t="shared" ca="1" si="7"/>
+        <v>92.329032600626036</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>73</v>
       </c>
@@ -11618,8 +13586,12 @@
       <c r="G493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493">
+        <f t="shared" ca="1" si="7"/>
+        <v>65.693448955328577</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>23</v>
       </c>
@@ -11641,8 +13613,12 @@
       <c r="G494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494">
+        <f t="shared" ca="1" si="7"/>
+        <v>32.998777147058902</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>1</v>
       </c>
@@ -11664,8 +13640,12 @@
       <c r="G495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495">
+        <f t="shared" ca="1" si="7"/>
+        <v>74.483639453797139</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>40</v>
       </c>
@@ -11687,8 +13667,12 @@
       <c r="G496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496">
+        <f t="shared" ca="1" si="7"/>
+        <v>96.253188093071103</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>94</v>
       </c>
@@ -11709,6 +13693,10 @@
       </c>
       <c r="G497">
         <v>0</v>
+      </c>
+      <c r="H497">
+        <f t="shared" ca="1" si="7"/>
+        <v>53.486552752286165</v>
       </c>
     </row>
   </sheetData>

--- a/exp_map.xlsx
+++ b/exp_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA08302-FD7C-4A7A-BB0A-A1D01D0BC592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D99B7-025E-400C-884F-D294404B877F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,8 +346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J494" sqref="J494"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -375,8 +375,8 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <f ca="1">RAND()*100</f>
-        <v>16.568260549125636</v>
+        <f ca="1">RAND()*3</f>
+        <v>0.42447580146680797</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -402,8 +402,8 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H65" ca="1" si="0">RAND()*100</f>
-        <v>36.225827046597473</v>
+        <f t="shared" ref="H2:H65" ca="1" si="0">RAND()*3</f>
+        <v>1.4984767189595525</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -430,7 +430,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.960304250181952</v>
+        <v>2.8010405322600005</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -457,7 +457,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>59.56944556795888</v>
+        <v>2.7854536967211669</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,7 +484,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>85.921182053142175</v>
+        <v>2.7323184951531632E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -511,7 +511,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>84.606701842013251</v>
+        <v>0.72993488754563129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -538,7 +538,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>67.85594301123804</v>
+        <v>0.82866248182933178</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -565,7 +565,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>83.648224330688251</v>
+        <v>2.817889321109678</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -592,7 +592,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>58.00852840904804</v>
+        <v>1.518088544648813</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -619,7 +619,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>79.724799614859037</v>
+        <v>0.80598079488851404</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -646,7 +646,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>70.616296357202231</v>
+        <v>2.0338204620431299</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.491933768098921</v>
+        <v>2.5559338129895757</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -700,7 +700,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.642893296654679</v>
+        <v>2.3948275905404217</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -727,7 +727,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.515659976177421</v>
+        <v>1.298064574585158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -754,7 +754,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>24.966375519641016</v>
+        <v>2.3257924354837574</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -781,7 +781,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>90.522459558075425</v>
+        <v>2.6029649274540505</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -808,7 +808,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>29.443030195650486</v>
+        <v>1.6680992187827948</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -835,7 +835,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>33.423214324994952</v>
+        <v>0.63136858351984204</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -862,7 +862,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>29.257570510647813</v>
+        <v>0.99808903321706388</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -889,7 +889,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>37.440204048356726</v>
+        <v>1.6007969207315467</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -916,7 +916,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>89.542132294522418</v>
+        <v>2.6537158740063216</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -943,7 +943,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>73.407631503688989</v>
+        <v>1.2289823188703646</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -970,7 +970,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>26.721572402781625</v>
+        <v>1.1075430210372825</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -982,7 +982,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>23.756647296561727</v>
+        <v>0.53881512312921187</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>30.568879172959164</v>
+        <v>1.5967304905044171</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3184140692698954</v>
+        <v>2.1580858098884113</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8649096468226007</v>
+        <v>2.4749047629661902</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>94.787996366403988</v>
+        <v>2.5600465577133216</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>58.490825405728856</v>
+        <v>0.94516047483727872</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>17.69998046440594</v>
+        <v>2.2811469830237008</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8277616296796397</v>
+        <v>1.1448295836740223</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5204664209207248</v>
+        <v>1.4745096115806744</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1370744522840721</v>
+        <v>0.46085636430582289</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>13.708155393240585</v>
+        <v>2.9301495920552472</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>78.074075316162734</v>
+        <v>0.66907691044795159</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="0"/>
-        <v>87.466438313538035</v>
+        <v>0.30170183644125981</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="0"/>
-        <v>85.479094918601149</v>
+        <v>1.6566949802314834</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="0"/>
-        <v>38.667620005915936</v>
+        <v>0.73653470757193029</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>61</v>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="0"/>
-        <v>84.730316667872501</v>
+        <v>1.744663899350142</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="0"/>
-        <v>53.09778542362524</v>
+        <v>2.2230961475744562</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="0"/>
-        <v>25.61610579016763</v>
+        <v>0.50860442671369455</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76591027622708863</v>
+        <v>1.0562948739895162</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="0"/>
-        <v>72.545565724811581</v>
+        <v>0.2122630632217829</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="0"/>
-        <v>23.862911544041442</v>
+        <v>1.6065410004397127</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="0"/>
-        <v>11.171283550808198</v>
+        <v>2.0386975033354773</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="0"/>
-        <v>99.725880259631552</v>
+        <v>2.4379896494214472</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="0"/>
-        <v>35.050134319739279</v>
+        <v>0.37988508790706066</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="0"/>
-        <v>17.267163431336485</v>
+        <v>0.55027274980368457</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="0"/>
-        <v>77.682240735245188</v>
+        <v>2.1792168923651443</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="0"/>
-        <v>11.936450884528881</v>
+        <v>0.57865094128038186</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="0"/>
-        <v>16.418108516325457</v>
+        <v>1.5735796445396093</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="0"/>
-        <v>26.270372448630074</v>
+        <v>1.5234117292031608</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="0"/>
-        <v>69.940019463132359</v>
+        <v>1.5403869664772698</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8704169288637775</v>
+        <v>2.7877460903677012</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="0"/>
-        <v>30.17799338708792</v>
+        <v>0.41254745122451619</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="0"/>
-        <v>42.452450787126608</v>
+        <v>0.74626999220587353</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="0"/>
-        <v>28.104596461304244</v>
+        <v>2.3567797053945965</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="0"/>
-        <v>92.247397490776791</v>
+        <v>1.9575561759462803</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="0"/>
-        <v>39.744656874161663</v>
+        <v>0.26994403756420715</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="0"/>
-        <v>34.287305238774813</v>
+        <v>2.1702221450574042</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8309001489304033</v>
+        <v>0.36455396522016703</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="0"/>
-        <v>59.933678891551331</v>
+        <v>1.6613447701451483</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="0"/>
-        <v>38.259390908996792</v>
+        <v>2.3948390168595792</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="0"/>
-        <v>93.811748679845522</v>
+        <v>3.0689605283430788E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="0"/>
-        <v>27.925861012479004</v>
+        <v>1.7127586659166385</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2115,8 +2115,8 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" ca="1" si="1">RAND()*100</f>
-        <v>15.587310381465402</v>
+        <f t="shared" ref="H66:H129" ca="1" si="1">RAND()*3</f>
+        <v>1.9406674113543185</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="1"/>
-        <v>57.88441064464299</v>
+        <v>0.75718626313028548</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="1"/>
-        <v>18.826847055799135</v>
+        <v>2.1822314232900726</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="1"/>
-        <v>41.656574487260698</v>
+        <v>1.6017919473140414</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="1"/>
-        <v>61.738888718745677</v>
+        <v>0.30342424903979137</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="1"/>
-        <v>42.99908129203429</v>
+        <v>1.7068610182518624</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="1"/>
-        <v>91.194302581832247</v>
+        <v>1.5193912393527684</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="1"/>
-        <v>85.019297379513063</v>
+        <v>0.91018488541607889</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="1"/>
-        <v>65.606727611731202</v>
+        <v>4.2042470402447241E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1007385249307897</v>
+        <v>0.80617779939191392</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="1"/>
-        <v>88.432562303087707</v>
+        <v>1.926861947531588</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="1"/>
-        <v>20.815083789254054</v>
+        <v>0.6162433424641508</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="1"/>
-        <v>62.231242447245748</v>
+        <v>2.3795024022626037</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="1"/>
-        <v>29.4407397086188</v>
+        <v>2.2692227190365282</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="1"/>
-        <v>33.868631297616147</v>
+        <v>0.25819464123810165</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="1"/>
-        <v>48.560298911831637</v>
+        <v>2.9652566360360186</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="1"/>
-        <v>63.571115536502887</v>
+        <v>1.2763225609482838</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="1"/>
-        <v>76.783861824224317</v>
+        <v>2.9198876211639191</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="1"/>
-        <v>72.30381659319481</v>
+        <v>2.8135351241894435</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="1"/>
-        <v>58.495592963494971</v>
+        <v>1.8019311914744147</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="1"/>
-        <v>1.735572218687087</v>
+        <v>0.32639228921360863</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="1"/>
-        <v>28.748456773797749</v>
+        <v>2.4340038614068762</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3230630700751203</v>
+        <v>2.8432073765448114</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="1"/>
-        <v>32.527302676286183</v>
+        <v>1.5425533779705565</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="1"/>
-        <v>47.743316978305558</v>
+        <v>0.95620371279507299</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="1"/>
-        <v>26.334506058643026</v>
+        <v>1.8619798296997367</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="1"/>
-        <v>55.188061126428167</v>
+        <v>0.91580636213316136</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="1"/>
-        <v>35.501140154949738</v>
+        <v>0.92759662764490158</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="1"/>
-        <v>57.442982732003792</v>
+        <v>0.50443894797027899</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9704479687519942</v>
+        <v>1.3621560087601732</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="1"/>
-        <v>24.567568691948139</v>
+        <v>1.2170055607880244</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="1"/>
-        <v>78.822527115450015</v>
+        <v>0.78285284345642103</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="1"/>
-        <v>35.794867378651588</v>
+        <v>2.0803338942765257</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="1"/>
-        <v>67.09269122526166</v>
+        <v>1.0103226059717474</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="1"/>
-        <v>24.526056747697332</v>
+        <v>0.91283411474108211</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="1"/>
-        <v>31.06915591899083</v>
+        <v>0.34064859477948317</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="1"/>
-        <v>16.644488719088045</v>
+        <v>0.89670731554408567</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="1"/>
-        <v>68.246622762753688</v>
+        <v>1.5036506764592805</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="1"/>
-        <v>29.518309083354154</v>
+        <v>2.1835885734584632</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="1"/>
-        <v>16.259386393886587</v>
+        <v>0.8835656876283563</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="1"/>
-        <v>34.801186602182867</v>
+        <v>0.10232343625559825</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="1"/>
-        <v>63.351794566052803</v>
+        <v>2.2918250817891814</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="1"/>
-        <v>15.316550230663861</v>
+        <v>2.2028055943888467</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="1"/>
-        <v>26.253291984706671</v>
+        <v>0.45833440018745009</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="1"/>
-        <v>46.726348152364849</v>
+        <v>0.88320680310072575</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="1"/>
-        <v>93.488398293195843</v>
+        <v>1.9232824066074516</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="1"/>
-        <v>19.497878736991648</v>
+        <v>2.956060387252887</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1301285152018337</v>
+        <v>2.7194178545613474</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0265441531176811</v>
+        <v>0.47161334933577914</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="1"/>
-        <v>93.972074457473994</v>
+        <v>1.8859493669084306</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9522072849586207</v>
+        <v>0.4140381058654008</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="1"/>
-        <v>27.363955746659453</v>
+        <v>2.2532548624102793</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="1"/>
-        <v>58.549595307854297</v>
+        <v>0.76353893711561194</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="1"/>
-        <v>63.869378148288703</v>
+        <v>2.3061876925229776</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7327516941017898</v>
+        <v>1.6953887103565657</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="1"/>
-        <v>58.622530449020516</v>
+        <v>0.75472147983145665</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="1"/>
-        <v>71.536407193459155</v>
+        <v>1.9983341420437799</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="1"/>
-        <v>23.743166051726138</v>
+        <v>2.9761841505901172</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="1"/>
-        <v>27.862184673013314</v>
+        <v>2.0212992559348448</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="1"/>
-        <v>88.727338664174894</v>
+        <v>0.27607619637745084</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="1"/>
-        <v>56.458344662822398</v>
+        <v>2.1817467229331342</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="1"/>
-        <v>50.362003050950968</v>
+        <v>2.9342604284914282</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="1"/>
-        <v>24.10522643519225</v>
+        <v>0.31494997680829273</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="1"/>
-        <v>51.654561760254516</v>
+        <v>2.2322043493622852</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3843,8 +3843,8 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H193" ca="1" si="2">RAND()*100</f>
-        <v>81.078490521577834</v>
+        <f t="shared" ref="H130:H193" ca="1" si="2">RAND()*3</f>
+        <v>1.2920731301134336</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="2"/>
-        <v>22.211452144096544</v>
+        <v>0.8919657469675103</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="2"/>
-        <v>51.816952349510558</v>
+        <v>2.6378489619561565</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="2"/>
-        <v>88.569035277409185</v>
+        <v>2.678182158159764</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H134">
         <f t="shared" ca="1" si="2"/>
-        <v>58.763262159868987</v>
+        <v>1.4492020559089553</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H135">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6691608858573579</v>
+        <v>2.5503033884760002</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="2"/>
-        <v>12.57308301478669</v>
+        <v>0.41518421619507284</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="2"/>
-        <v>84.314140985177076</v>
+        <v>1.858959532390724</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="2"/>
-        <v>17.769460826989381</v>
+        <v>2.0286349339119929</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="2"/>
-        <v>90.455223978899568</v>
+        <v>2.869303486842063</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="2"/>
-        <v>50.002615005190677</v>
+        <v>1.9722693667089335</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="2"/>
-        <v>46.505579649557696</v>
+        <v>1.4333792822066176</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="2"/>
-        <v>34.624809480429896</v>
+        <v>2.0092260924358181</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="2"/>
-        <v>24.172712619967506</v>
+        <v>2.8827249566719324</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="2"/>
-        <v>98.803767963747063</v>
+        <v>1.1565192806871676</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="2"/>
-        <v>99.006163234482983</v>
+        <v>1.225800341308942</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="2"/>
-        <v>39.306973418587823</v>
+        <v>0.58181972006026061</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="2"/>
-        <v>34.657010979925708</v>
+        <v>1.9302966753779613</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="2"/>
-        <v>45.119619450869685</v>
+        <v>0.26267864953439957</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="2"/>
-        <v>42.302716043114174</v>
+        <v>0.63783706615858116</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="2"/>
-        <v>58.62167264324674</v>
+        <v>0.12214735566718682</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="2"/>
-        <v>15.772973461768425</v>
+        <v>2.7061781519497718</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="2"/>
-        <v>71.086696472204352</v>
+        <v>2.4516996728022122</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="2"/>
-        <v>95.127113414890616</v>
+        <v>2.7086694638248265</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="2"/>
-        <v>69.213028957327879</v>
+        <v>0.55576519195297602</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="2"/>
-        <v>59.969658083793917</v>
+        <v>2.722668211179704</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6288222597903763</v>
+        <v>0.26319928218481137</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="2"/>
-        <v>71.109319275033911</v>
+        <v>0.98231123230569628</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="2"/>
-        <v>73.755927508963339</v>
+        <v>1.3300407428876684</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8793091810219948</v>
+        <v>0.94532296392276982</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="2"/>
-        <v>37.792580972297529</v>
+        <v>2.3692431445574282</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="2"/>
-        <v>30.818352356344882</v>
+        <v>1.7580110596894363</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="2"/>
-        <v>32.235894762628284</v>
+        <v>2.5284729896324487</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H163">
         <f t="shared" ca="1" si="2"/>
-        <v>11.792585139577827</v>
+        <v>2.2441743294270009</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="H164">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0111341979925497</v>
+        <v>0.29411085070636867</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H165">
         <f t="shared" ca="1" si="2"/>
-        <v>75.805693453853578</v>
+        <v>2.2787532026647268</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="H166">
         <f t="shared" ca="1" si="2"/>
-        <v>27.512946205349042</v>
+        <v>1.215841294771056</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="H167">
         <f t="shared" ca="1" si="2"/>
-        <v>31.482483938738227</v>
+        <v>2.175141160864059</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="H168">
         <f t="shared" ca="1" si="2"/>
-        <v>63.864788536346936</v>
+        <v>1.1004292370647952</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="H169">
         <f t="shared" ca="1" si="2"/>
-        <v>36.635952959344721</v>
+        <v>1.9884555616820867</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="H170">
         <f t="shared" ca="1" si="2"/>
-        <v>42.983499184901341</v>
+        <v>5.1238263736187561E-2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="H171">
         <f t="shared" ca="1" si="2"/>
-        <v>26.725357853151831</v>
+        <v>0.16455927960508221</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="H172">
         <f t="shared" ca="1" si="2"/>
-        <v>81.436835819672453</v>
+        <v>1.5716892436988119</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="H173">
         <f t="shared" ca="1" si="2"/>
-        <v>63.478035089534757</v>
+        <v>1.9954205201268573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H174">
         <f t="shared" ca="1" si="2"/>
-        <v>51.360149379200024</v>
+        <v>2.8285081904697122</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="H175">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6738674575884311</v>
+        <v>1.2455380858418721</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H176">
         <f t="shared" ca="1" si="2"/>
-        <v>57.96879378062075</v>
+        <v>1.6251328613241607</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="H177">
         <f t="shared" ca="1" si="2"/>
-        <v>31.061961828523078</v>
+        <v>1.3902873421798012</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="H178">
         <f t="shared" ca="1" si="2"/>
-        <v>54.821059553552843</v>
+        <v>1.0981269318084186</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="H179">
         <f t="shared" ca="1" si="2"/>
-        <v>68.998653435656379</v>
+        <v>2.582270790821156</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="H180">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6263873344578492</v>
+        <v>1.6466012919037045</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="H181">
         <f t="shared" ca="1" si="2"/>
-        <v>80.560837126378644</v>
+        <v>2.3219123154544103</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="H182">
         <f t="shared" ca="1" si="2"/>
-        <v>99.210031920384949</v>
+        <v>0.28997833908397286</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="H183">
         <f t="shared" ca="1" si="2"/>
-        <v>67.342062452340286</v>
+        <v>1.6864820700864629</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="H184">
         <f t="shared" ca="1" si="2"/>
-        <v>23.724926345742947</v>
+        <v>2.0673304115277862</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="H185">
         <f t="shared" ca="1" si="2"/>
-        <v>76.068244322228153</v>
+        <v>0.30651607098198841</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H186">
         <f t="shared" ca="1" si="2"/>
-        <v>81.931604052796473</v>
+        <v>1.9882033566504338</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="H187">
         <f t="shared" ca="1" si="2"/>
-        <v>44.391923402264432</v>
+        <v>0.76899103569281169</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="H188">
         <f t="shared" ca="1" si="2"/>
-        <v>50.0135361289651</v>
+        <v>0.7968275399531265</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="H189">
         <f t="shared" ca="1" si="2"/>
-        <v>48.914680638821849</v>
+        <v>2.7699052106935005</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="H190">
         <f t="shared" ca="1" si="2"/>
-        <v>63.071779438769873</v>
+        <v>1.0294217640483931</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H191">
         <f t="shared" ca="1" si="2"/>
-        <v>93.043158916349569</v>
+        <v>1.0650542789956274</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="H192">
         <f t="shared" ca="1" si="2"/>
-        <v>71.812118463812638</v>
+        <v>1.8607673079020768</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="H193">
         <f t="shared" ca="1" si="2"/>
-        <v>18.362298586867233</v>
+        <v>0.4833130245930245</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5556,8 +5556,8 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H257" ca="1" si="3">RAND()*100</f>
-        <v>26.97809369155415</v>
+        <f t="shared" ref="H194:H257" ca="1" si="3">RAND()*3</f>
+        <v>0.14296456468545959</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="H195">
         <f t="shared" ca="1" si="3"/>
-        <v>28.817565988027738</v>
+        <v>1.4662068149870002</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5611,7 +5611,7 @@
       </c>
       <c r="H196">
         <f t="shared" ca="1" si="3"/>
-        <v>14.376644966740804</v>
+        <v>0.78597038263955454</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="H197">
         <f t="shared" ca="1" si="3"/>
-        <v>98.895364284525684</v>
+        <v>0.16453396108060225</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="H198">
         <f t="shared" ca="1" si="3"/>
-        <v>87.946411596160658</v>
+        <v>2.7416493132055093</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="H199">
         <f t="shared" ca="1" si="3"/>
-        <v>2.87210977839647</v>
+        <v>2.4417693687492092</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="H200">
         <f t="shared" ca="1" si="3"/>
-        <v>28.432576746744132</v>
+        <v>1.6551032701300072</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H201">
         <f t="shared" ca="1" si="3"/>
-        <v>40.648665703268946</v>
+        <v>1.4998505435233607</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="H202">
         <f t="shared" ca="1" si="3"/>
-        <v>75.548079326562998</v>
+        <v>2.9680030596466866</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="H203">
         <f t="shared" ca="1" si="3"/>
-        <v>62.889911982323312</v>
+        <v>0.77563178751983952</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="H204">
         <f t="shared" ca="1" si="3"/>
-        <v>87.859281086436496</v>
+        <v>1.5983327405077983</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="H205">
         <f t="shared" ca="1" si="3"/>
-        <v>12.836743193426269</v>
+        <v>1.0081256869868476</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H206">
         <f t="shared" ca="1" si="3"/>
-        <v>55.676402039871405</v>
+        <v>0.30878690710684931</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="H207">
         <f t="shared" ca="1" si="3"/>
-        <v>90.335809902611203</v>
+        <v>2.6334207041950579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="H208">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6093732503476303</v>
+        <v>2.1134175380810953</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="H209">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0966377213859229</v>
+        <v>0.23723664462478711</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="H210">
         <f t="shared" ca="1" si="3"/>
-        <v>80.167496590858249</v>
+        <v>1.439496848172553</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="H211">
         <f t="shared" ca="1" si="3"/>
-        <v>65.892987141610391</v>
+        <v>1.8377798778494392</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="H212">
         <f t="shared" ca="1" si="3"/>
-        <v>72.89048909031996</v>
+        <v>2.2871813793585396</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="H213">
         <f t="shared" ca="1" si="3"/>
-        <v>83.402865560179478</v>
+        <v>2.7984316986230038</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="H214">
         <f t="shared" ca="1" si="3"/>
-        <v>61.19010184396366</v>
+        <v>0.40947261430853366</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="H215">
         <f t="shared" ca="1" si="3"/>
-        <v>94.792803465886323</v>
+        <v>1.7772757787845257</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H216">
         <f t="shared" ca="1" si="3"/>
-        <v>82.67809235162666</v>
+        <v>0.89202194738755536</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="H217">
         <f t="shared" ca="1" si="3"/>
-        <v>64.59884586728262</v>
+        <v>0.66662185140438346</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="H218">
         <f t="shared" ca="1" si="3"/>
-        <v>55.702402470237026</v>
+        <v>1.8916666073235489</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="H219">
         <f t="shared" ca="1" si="3"/>
-        <v>35.12966792503822</v>
+        <v>0.40893946053875718</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="H220">
         <f t="shared" ca="1" si="3"/>
-        <v>47.541625591502502</v>
+        <v>1.7325475001971768</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="H221">
         <f t="shared" ca="1" si="3"/>
-        <v>77.794696847787904</v>
+        <v>0.84608619767677773</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="H222">
         <f t="shared" ca="1" si="3"/>
-        <v>53.609042281721564</v>
+        <v>1.9844382576300035</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="H223">
         <f t="shared" ca="1" si="3"/>
-        <v>72.734672619384241</v>
+        <v>1.3833911286257088</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H224">
         <f t="shared" ca="1" si="3"/>
-        <v>26.296555795793243</v>
+        <v>0.7001300667050705</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="H225">
         <f t="shared" ca="1" si="3"/>
-        <v>38.056400302081414</v>
+        <v>2.5914464915741946</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="H226">
         <f t="shared" ca="1" si="3"/>
-        <v>98.941891683040282</v>
+        <v>1.3648608719104827</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="H227">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1554871103535973</v>
+        <v>1.4672549023817463</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="H228">
         <f t="shared" ca="1" si="3"/>
-        <v>30.969082673318404</v>
+        <v>1.948118692044809</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>207</v>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="H229">
         <f t="shared" ca="1" si="3"/>
-        <v>71.436148860663849</v>
+        <v>1.0577001965141282</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="H230">
         <f t="shared" ca="1" si="3"/>
-        <v>83.996110304542682</v>
+        <v>0.86462601975509523</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="H231">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4609836027489926</v>
+        <v>2.1761147497431779</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="H232">
         <f t="shared" ca="1" si="3"/>
-        <v>59.49958463482853</v>
+        <v>2.2106787037305975</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="H233">
         <f t="shared" ca="1" si="3"/>
-        <v>31.341023670371481</v>
+        <v>1.0862848540742815</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="H234">
         <f t="shared" ca="1" si="3"/>
-        <v>61.325773125585805</v>
+        <v>2.569958247118906</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="H235">
         <f t="shared" ca="1" si="3"/>
-        <v>91.585361630395695</v>
+        <v>0.92951659015058452</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="H236">
         <f t="shared" ca="1" si="3"/>
-        <v>91.695564923695798</v>
+        <v>0.57206715985817602</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="H237">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8213289287763113</v>
+        <v>2.0807134416467452</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="H238">
         <f t="shared" ca="1" si="3"/>
-        <v>3.2397756905275577</v>
+        <v>1.8774196198584616</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6760,15 +6760,15 @@
       </c>
       <c r="H239">
         <f t="shared" ca="1" si="3"/>
-        <v>96.812967611832207</v>
+        <v>1.7804118037701007</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="B240">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C240">
         <v>240</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="H240">
         <f t="shared" ca="1" si="3"/>
-        <v>79.639156314173221</v>
+        <v>1.7362111302750169</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="H241">
         <f t="shared" ca="1" si="3"/>
-        <v>58.641165600319226</v>
+        <v>1.8909135191903759</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H242">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1337466789747674</v>
+        <v>2.4485293477266694</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="H243">
         <f t="shared" ca="1" si="3"/>
-        <v>51.652915118941102</v>
+        <v>1.700321295434251</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H244">
         <f t="shared" ca="1" si="3"/>
-        <v>21.382745860241126</v>
+        <v>1.0102619426446635</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="H245">
         <f t="shared" ca="1" si="3"/>
-        <v>93.792383280513903</v>
+        <v>2.1325481554983758</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H246">
         <f t="shared" ca="1" si="3"/>
-        <v>14.742126360556451</v>
+        <v>2.2358325325227115</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="H247">
         <f t="shared" ca="1" si="3"/>
-        <v>66.304411892091167</v>
+        <v>9.3544970254215487E-2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="H248">
         <f t="shared" ca="1" si="3"/>
-        <v>23.798046892408951</v>
+        <v>2.4451159617240599</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="H249">
         <f t="shared" ca="1" si="3"/>
-        <v>89.523263715464267</v>
+        <v>0.80174341184352693</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="H250">
         <f t="shared" ca="1" si="3"/>
-        <v>61.463847314318485</v>
+        <v>8.2653203831182909E-2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="H251">
         <f t="shared" ca="1" si="3"/>
-        <v>98.277369604381306</v>
+        <v>2.2089780389116882</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H252">
         <f t="shared" ca="1" si="3"/>
-        <v>91.453644386261118</v>
+        <v>2.5910300288066717</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="H253">
         <f t="shared" ca="1" si="3"/>
-        <v>79.327261933449705</v>
+        <v>1.7243827125575009</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="H254">
         <f t="shared" ca="1" si="3"/>
-        <v>45.403580964367563</v>
+        <v>1.855646118778375</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="H255">
         <f t="shared" ca="1" si="3"/>
-        <v>98.482290399324086</v>
+        <v>0.59281834654962084</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H256">
         <f t="shared" ca="1" si="3"/>
-        <v>63.018605625929844</v>
+        <v>0.42124703621070525</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="H257">
         <f t="shared" ca="1" si="3"/>
-        <v>48.41796814290479</v>
+        <v>1.7080386135124268</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7272,8 +7272,8 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <f t="shared" ref="H258:H321" ca="1" si="4">RAND()*100</f>
-        <v>4.5853869338577713</v>
+        <f t="shared" ref="H258:H321" ca="1" si="4">RAND()*3</f>
+        <v>0.67399510708973109</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="H259">
         <f t="shared" ca="1" si="4"/>
-        <v>28.220223407373734</v>
+        <v>0.54327390941975284</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="H260">
         <f t="shared" ca="1" si="4"/>
-        <v>75.042639665073068</v>
+        <v>2.321041160594965</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="H261">
         <f t="shared" ca="1" si="4"/>
-        <v>36.424779462192838</v>
+        <v>0.36881219968568235</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="H262">
         <f t="shared" ca="1" si="4"/>
-        <v>43.172010812015401</v>
+        <v>1.1739246408919142</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="H263">
         <f t="shared" ca="1" si="4"/>
-        <v>66.415016983464881</v>
+        <v>2.201428974526376</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="H264">
         <f t="shared" ca="1" si="4"/>
-        <v>65.788509841181948</v>
+        <v>2.8961408945072411</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="H265">
         <f t="shared" ca="1" si="4"/>
-        <v>36.458976342696893</v>
+        <v>1.0713387070704441</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="H266">
         <f t="shared" ca="1" si="4"/>
-        <v>62.459745364963595</v>
+        <v>1.0429971792670805</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="H267">
         <f t="shared" ca="1" si="4"/>
-        <v>73.569117421154345</v>
+        <v>1.8479459443147346</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="H268">
         <f t="shared" ca="1" si="4"/>
-        <v>53.356057104218515</v>
+        <v>0.78484528320322899</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="H269">
         <f t="shared" ca="1" si="4"/>
-        <v>27.372127487021835</v>
+        <v>1.5770824342822722</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="H270">
         <f t="shared" ca="1" si="4"/>
-        <v>45.561454155945334</v>
+        <v>2.9682995359050257</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H271">
         <f t="shared" ca="1" si="4"/>
-        <v>30.787282452414576</v>
+        <v>2.4946085780721692</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H272">
         <f t="shared" ca="1" si="4"/>
-        <v>32.256445558997683</v>
+        <v>2.5948410575600107</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="H273">
         <f t="shared" ca="1" si="4"/>
-        <v>26.752522436503234</v>
+        <v>0.11696616398336457</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H274">
         <f t="shared" ca="1" si="4"/>
-        <v>39.023400124936479</v>
+        <v>0.75721675929572174</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="H275">
         <f t="shared" ca="1" si="4"/>
-        <v>48.789156957590784</v>
+        <v>2.4384766653017653</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="H276">
         <f t="shared" ca="1" si="4"/>
-        <v>14.985367936354177</v>
+        <v>0.86698689183068411</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="H277">
         <f t="shared" ca="1" si="4"/>
-        <v>13.203831848478165</v>
+        <v>2.6591241428613599</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="H278">
         <f t="shared" ca="1" si="4"/>
-        <v>97.390762945540573</v>
+        <v>2.3992748386834277</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="H279">
         <f t="shared" ca="1" si="4"/>
-        <v>97.975299731667903</v>
+        <v>2.042687915486352</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="H280">
         <f t="shared" ca="1" si="4"/>
-        <v>19.688598334878272</v>
+        <v>0.32925738357048007</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="H281">
         <f t="shared" ca="1" si="4"/>
-        <v>68.397193941356775</v>
+        <v>0.60879050748279129</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="H282">
         <f t="shared" ca="1" si="4"/>
-        <v>65.182472747294227</v>
+        <v>0.10885029191914353</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="H283">
         <f t="shared" ca="1" si="4"/>
-        <v>52.81149639964837</v>
+        <v>1.8338802579629996</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="H284">
         <f t="shared" ca="1" si="4"/>
-        <v>32.177478104854998</v>
+        <v>1.5957153714279919</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="H285">
         <f t="shared" ca="1" si="4"/>
-        <v>85.958766168345818</v>
+        <v>2.7952958890354429</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="H286">
         <f t="shared" ca="1" si="4"/>
-        <v>51.035967744381992</v>
+        <v>1.9385856967361204</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="H287">
         <f t="shared" ca="1" si="4"/>
-        <v>63.97894043457849</v>
+        <v>2.2760387285356805</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="H288">
         <f t="shared" ca="1" si="4"/>
-        <v>93.516416513683126</v>
+        <v>1.5957283612095476</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="H289">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0899391780501588</v>
+        <v>2.526466386787845</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="H290">
         <f t="shared" ca="1" si="4"/>
-        <v>26.822274446317905</v>
+        <v>0.80782876858591879</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="H291">
         <f t="shared" ca="1" si="4"/>
-        <v>78.960479361941381</v>
+        <v>1.0181503617126419</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="H292">
         <f t="shared" ca="1" si="4"/>
-        <v>93.789152702870638</v>
+        <v>1.8123772497114863</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H293">
         <f t="shared" ca="1" si="4"/>
-        <v>12.353730841941669</v>
+        <v>0.78550048135473682</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="H294">
         <f t="shared" ca="1" si="4"/>
-        <v>18.910662155419043</v>
+        <v>1.2828401478347717</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="H295">
         <f t="shared" ca="1" si="4"/>
-        <v>71.711151828365033</v>
+        <v>2.633556145858345</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="H296">
         <f t="shared" ca="1" si="4"/>
-        <v>43.300093115790425</v>
+        <v>2.1049800995366628</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="H297">
         <f t="shared" ca="1" si="4"/>
-        <v>84.936913684062333</v>
+        <v>1.8157289788677935</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="H298">
         <f t="shared" ca="1" si="4"/>
-        <v>58.90269539607025</v>
+        <v>0.96060542376168789</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="H299">
         <f t="shared" ca="1" si="4"/>
-        <v>17.955831770658403</v>
+        <v>2.5918588821784398</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="H300">
         <f t="shared" ca="1" si="4"/>
-        <v>14.558017125312384</v>
+        <v>2.1776326927038623</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="H301">
         <f t="shared" ca="1" si="4"/>
-        <v>91.757513264968409</v>
+        <v>1.0487431782297532</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H302">
         <f t="shared" ca="1" si="4"/>
-        <v>59.116030758733253</v>
+        <v>1.709659861549377</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="H303">
         <f t="shared" ca="1" si="4"/>
-        <v>96.970980905334997</v>
+        <v>0.80158365978943469</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="H304">
         <f t="shared" ca="1" si="4"/>
-        <v>28.145080641985786</v>
+        <v>1.310895544111363</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="H305">
         <f t="shared" ca="1" si="4"/>
-        <v>62.886122501028396</v>
+        <v>0.93469378098040901</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H306">
         <f t="shared" ca="1" si="4"/>
-        <v>96.230336614798375</v>
+        <v>1.8903651146603939</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="H307">
         <f t="shared" ca="1" si="4"/>
-        <v>48.647330023114996</v>
+        <v>2.7252099257007174</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="H308">
         <f t="shared" ca="1" si="4"/>
-        <v>56.474294992998196</v>
+        <v>2.7319468256709545</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="H309">
         <f t="shared" ca="1" si="4"/>
-        <v>80.065495899370703</v>
+        <v>0.69200460918422135</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="H310">
         <f t="shared" ca="1" si="4"/>
-        <v>45.892337740674606</v>
+        <v>1.9309997635245568</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="H311">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1268884834447377</v>
+        <v>2.9171208133455528</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="H312">
         <f t="shared" ca="1" si="4"/>
-        <v>76.280876135216673</v>
+        <v>2.3614297896600522</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="H313">
         <f t="shared" ca="1" si="4"/>
-        <v>80.000814121808901</v>
+        <v>2.8865677004567245</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="H314">
         <f t="shared" ca="1" si="4"/>
-        <v>59.315959055776055</v>
+        <v>0.47773021296917417</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="H315">
         <f t="shared" ca="1" si="4"/>
-        <v>16.522426985682536</v>
+        <v>0.57643857725317271</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="H316">
         <f t="shared" ca="1" si="4"/>
-        <v>55.748118560769633</v>
+        <v>0.7019465309927595</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="H317">
         <f t="shared" ca="1" si="4"/>
-        <v>92.447521286454901</v>
+        <v>0.81505612889162637</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="H318">
         <f t="shared" ca="1" si="4"/>
-        <v>34.936193548196748</v>
+        <v>1.6953399362069907</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="H319">
         <f t="shared" ca="1" si="4"/>
-        <v>68.643127173303256</v>
+        <v>1.4893726030679828</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="H320">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5504679558751344</v>
+        <v>3.5648998504019924E-2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="H321">
         <f t="shared" ca="1" si="4"/>
-        <v>41.495784416235601</v>
+        <v>1.0613209690189764</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8970,8 +8970,8 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <f t="shared" ref="H322:H385" ca="1" si="5">RAND()*100</f>
-        <v>99.606878591830366</v>
+        <f t="shared" ref="H322:H385" ca="1" si="5">RAND()*3</f>
+        <v>1.200629176125958</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="H323">
         <f t="shared" ca="1" si="5"/>
-        <v>75.319455357646603</v>
+        <v>0.19767978476048687</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="H324">
         <f t="shared" ca="1" si="5"/>
-        <v>69.363322347439123</v>
+        <v>0.33478044642586824</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="H325">
         <f t="shared" ca="1" si="5"/>
-        <v>78.146683246935112</v>
+        <v>1.4114402444564127</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="H326">
         <f t="shared" ca="1" si="5"/>
-        <v>55.497949007497468</v>
+        <v>1.2579985111241951</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H327">
         <f t="shared" ca="1" si="5"/>
-        <v>19.076469397354913</v>
+        <v>0.2704449975085601</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="H328">
         <f t="shared" ca="1" si="5"/>
-        <v>32.053554067084391</v>
+        <v>1.7813538471748265</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="H329">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7754503903502314</v>
+        <v>1.3244530841318647</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="H330">
         <f t="shared" ca="1" si="5"/>
-        <v>36.027810308900285</v>
+        <v>1.2190121133177405</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="H331">
         <f t="shared" ca="1" si="5"/>
-        <v>71.882825400041867</v>
+        <v>1.8548104252605437</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="H332">
         <f t="shared" ca="1" si="5"/>
-        <v>13.836442567435004</v>
+        <v>2.2501251429545328</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="H333">
         <f t="shared" ca="1" si="5"/>
-        <v>76.390004204508884</v>
+        <v>2.475842252746328</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="H334">
         <f t="shared" ca="1" si="5"/>
-        <v>60.885765639032819</v>
+        <v>2.9157328232275663</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="H335">
         <f t="shared" ca="1" si="5"/>
-        <v>63.691135637402965</v>
+        <v>2.1771090092696843E-2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="H336">
         <f t="shared" ca="1" si="5"/>
-        <v>82.7357050240051</v>
+        <v>0.97837875877892577</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="H337">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1382796520120007</v>
+        <v>1.6977501872759</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="H338">
         <f t="shared" ca="1" si="5"/>
-        <v>75.828283817360003</v>
+        <v>1.7969809669973604</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="H339">
         <f t="shared" ca="1" si="5"/>
-        <v>31.66310531175651</v>
+        <v>0.74819598097719664</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="H340">
         <f t="shared" ca="1" si="5"/>
-        <v>26.629627453186831</v>
+        <v>0.58734410617362265</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="H341">
         <f t="shared" ca="1" si="5"/>
-        <v>32.902472568191399</v>
+        <v>1.62023368242673</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H342">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3897376180492529</v>
+        <v>2.9957169201534151</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="H343">
         <f t="shared" ca="1" si="5"/>
-        <v>62.591202512830705</v>
+        <v>1.9579439804913958</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="H344">
         <f t="shared" ca="1" si="5"/>
-        <v>48.483324304051223</v>
+        <v>0.8760985288805615</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="H345">
         <f t="shared" ca="1" si="5"/>
-        <v>54.569988366980006</v>
+        <v>2.1696830677034864</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="H346">
         <f t="shared" ca="1" si="5"/>
-        <v>81.03110678519802</v>
+        <v>0.95516521579459202</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="H347">
         <f t="shared" ca="1" si="5"/>
-        <v>64.553148477385008</v>
+        <v>1.1854003567857374</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="H348">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24618968023701893</v>
+        <v>2.5127419036490588</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="H349">
         <f t="shared" ca="1" si="5"/>
-        <v>77.214151580070563</v>
+        <v>2.0583299459849962</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="H350">
         <f t="shared" ca="1" si="5"/>
-        <v>57.598464093977007</v>
+        <v>1.128735601518073</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="H351">
         <f t="shared" ca="1" si="5"/>
-        <v>33.29041536132695</v>
+        <v>0.95568421711335472</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="H352">
         <f t="shared" ca="1" si="5"/>
-        <v>66.591779680212397</v>
+        <v>2.0838283884577691</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="H353">
         <f t="shared" ca="1" si="5"/>
-        <v>70.862497481565271</v>
+        <v>0.22964557194943713</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="H354">
         <f t="shared" ca="1" si="5"/>
-        <v>69.689943652475833</v>
+        <v>1.4282517654036408</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="H355">
         <f t="shared" ca="1" si="5"/>
-        <v>77.253725692614708</v>
+        <v>0.23304471952601791</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="H356">
         <f t="shared" ca="1" si="5"/>
-        <v>94.489872283488111</v>
+        <v>1.694224956870618</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="H357">
         <f t="shared" ca="1" si="5"/>
-        <v>53.831935751224094</v>
+        <v>1.660414733862613</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="H358">
         <f t="shared" ca="1" si="5"/>
-        <v>43.484518469462941</v>
+        <v>1.8179340737257221</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="H359">
         <f t="shared" ca="1" si="5"/>
-        <v>82.906009979335607</v>
+        <v>2.287148345533482</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="H360">
         <f t="shared" ca="1" si="5"/>
-        <v>95.561426577368309</v>
+        <v>1.5691868193726899</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="H361">
         <f t="shared" ca="1" si="5"/>
-        <v>87.00683048573508</v>
+        <v>1.1178590045311232</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="H362">
         <f t="shared" ca="1" si="5"/>
-        <v>58.064994472499606</v>
+        <v>2.1504390517724259</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="H363">
         <f t="shared" ca="1" si="5"/>
-        <v>89.833889706821793</v>
+        <v>2.1949255592077632</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="H364">
         <f t="shared" ca="1" si="5"/>
-        <v>89.628110881079465</v>
+        <v>2.8305979911476875E-2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="H365">
         <f t="shared" ca="1" si="5"/>
-        <v>24.61011640571845</v>
+        <v>0.27025750496236378</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H366">
         <f t="shared" ca="1" si="5"/>
-        <v>60.016028350064019</v>
+        <v>2.6151941678200448</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="H367">
         <f t="shared" ca="1" si="5"/>
-        <v>87.780984856349349</v>
+        <v>0.51557093409544796</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="H368">
         <f t="shared" ca="1" si="5"/>
-        <v>91.897132930216657</v>
+        <v>1.9889258337514901</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="H369">
         <f t="shared" ca="1" si="5"/>
-        <v>56.992572224871822</v>
+        <v>0.99946653137440222</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="H370">
         <f t="shared" ca="1" si="5"/>
-        <v>95.103037667877459</v>
+        <v>1.1301383766944366</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="H371">
         <f t="shared" ca="1" si="5"/>
-        <v>78.215730761256125</v>
+        <v>1.4545478341974247</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="H372">
         <f t="shared" ca="1" si="5"/>
-        <v>87.700973339466998</v>
+        <v>2.1859010617216548</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="H373">
         <f t="shared" ca="1" si="5"/>
-        <v>61.487338512753318</v>
+        <v>2.7721737424376185</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="H374">
         <f t="shared" ca="1" si="5"/>
-        <v>87.722290613026715</v>
+        <v>2.5158102435135969</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="H375">
         <f t="shared" ca="1" si="5"/>
-        <v>36.12280777572029</v>
+        <v>2.2174148566293312</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="H376">
         <f t="shared" ca="1" si="5"/>
-        <v>74.337017845379719</v>
+        <v>2.0201783201894443</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="H377">
         <f t="shared" ca="1" si="5"/>
-        <v>48.205715878428826</v>
+        <v>0.24088146546228051</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10483,7 +10483,7 @@
       </c>
       <c r="H378">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7165306027180813</v>
+        <v>4.1558476606654682E-2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="H379">
         <f t="shared" ca="1" si="5"/>
-        <v>33.688530906585342</v>
+        <v>0.49819904485647382</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="H380">
         <f t="shared" ca="1" si="5"/>
-        <v>89.546919494104714</v>
+        <v>0.68353778114471342</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="H381">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5578363159894026</v>
+        <v>2.5946291582816512</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H382">
         <f t="shared" ca="1" si="5"/>
-        <v>95.827921412919721</v>
+        <v>0.80235557326695051</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="H383">
         <f t="shared" ca="1" si="5"/>
-        <v>66.578967410188525</v>
+        <v>0.33358677325830166</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="H384">
         <f t="shared" ca="1" si="5"/>
-        <v>72.800380562926648</v>
+        <v>1.8261371332502003</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="H385">
         <f t="shared" ca="1" si="5"/>
-        <v>48.487536893787578</v>
+        <v>1.9502550384426045</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10698,8 +10698,8 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <f t="shared" ref="H386:H449" ca="1" si="6">RAND()*100</f>
-        <v>28.644112381126231</v>
+        <f t="shared" ref="H386:H449" ca="1" si="6">RAND()*3</f>
+        <v>2.1428248602447533</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="H387">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9696296171568326</v>
+        <v>2.2935365520212381</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="H388">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2278954786636662</v>
+        <v>2.6927012049714829</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="H389">
         <f t="shared" ca="1" si="6"/>
-        <v>47.504752557987096</v>
+        <v>1.516155628567879</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="H390">
         <f t="shared" ca="1" si="6"/>
-        <v>78.79503952497501</v>
+        <v>2.7293167648366787</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="H391">
         <f t="shared" ca="1" si="6"/>
-        <v>38.683261772401124</v>
+        <v>0.52924573342754466</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="H392">
         <f t="shared" ca="1" si="6"/>
-        <v>26.810015791466334</v>
+        <v>0.68673805839989921</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="H393">
         <f t="shared" ca="1" si="6"/>
-        <v>96.666716311267649</v>
+        <v>1.5892497739505789</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="H394">
         <f t="shared" ca="1" si="6"/>
-        <v>79.409876352212251</v>
+        <v>0.57829886005077924</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="H395">
         <f t="shared" ca="1" si="6"/>
-        <v>46.162917549246487</v>
+        <v>2.8142285987162281</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10969,7 +10969,7 @@
       </c>
       <c r="H396">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8004706496430711</v>
+        <v>2.7406547867238364</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="H397">
         <f t="shared" ca="1" si="6"/>
-        <v>17.189919672335808</v>
+        <v>2.7026186001289547</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="H398">
         <f t="shared" ca="1" si="6"/>
-        <v>62.492861242738449</v>
+        <v>1.155079395688563E-2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H399">
         <f t="shared" ca="1" si="6"/>
-        <v>25.400218936584594</v>
+        <v>2.4296032380137111</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="H400">
         <f t="shared" ca="1" si="6"/>
-        <v>11.676039785668246</v>
+        <v>1.1095524064278917</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="H401">
         <f t="shared" ca="1" si="6"/>
-        <v>77.801640254301404</v>
+        <v>1.5420281354365839</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="H402">
         <f t="shared" ca="1" si="6"/>
-        <v>98.379319829234191</v>
+        <v>2.3924895018099188</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="H403">
         <f t="shared" ca="1" si="6"/>
-        <v>46.063358483041782</v>
+        <v>1.8166790207527361</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="H404">
         <f t="shared" ca="1" si="6"/>
-        <v>22.197483214380544</v>
+        <v>0.33067462129251501</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="H405">
         <f t="shared" ca="1" si="6"/>
-        <v>17.86366164363017</v>
+        <v>2.335253909976033</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11239,7 +11239,7 @@
       </c>
       <c r="H406">
         <f t="shared" ca="1" si="6"/>
-        <v>64.771257184286839</v>
+        <v>2.0625277260007837</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="H407">
         <f t="shared" ca="1" si="6"/>
-        <v>34.195095332592871</v>
+        <v>0.3881109952189532</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="H408">
         <f t="shared" ca="1" si="6"/>
-        <v>25.733694432459419</v>
+        <v>1.0735229288504999</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="H409">
         <f t="shared" ca="1" si="6"/>
-        <v>38.983152786341734</v>
+        <v>0.3411132659159648</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="H410">
         <f t="shared" ca="1" si="6"/>
-        <v>96.857746435682458</v>
+        <v>1.0499061276753361</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="H411">
         <f t="shared" ca="1" si="6"/>
-        <v>82.057267168073437</v>
+        <v>0.27982741509049491</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="H412">
         <f t="shared" ca="1" si="6"/>
-        <v>90.30412659991363</v>
+        <v>0.14456836541571194</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="H413">
         <f t="shared" ca="1" si="6"/>
-        <v>62.201277737151358</v>
+        <v>0.49381019245565405</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="H414">
         <f t="shared" ca="1" si="6"/>
-        <v>25.300334085284803</v>
+        <v>2.4556669561616515</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="H415">
         <f t="shared" ca="1" si="6"/>
-        <v>51.077870751995803</v>
+        <v>0.62990910673013523</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="H416">
         <f t="shared" ca="1" si="6"/>
-        <v>66.211812117193773</v>
+        <v>1.104509333506984</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="H417">
         <f t="shared" ca="1" si="6"/>
-        <v>47.180238252544839</v>
+        <v>1.787572933334989</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="H418">
         <f t="shared" ca="1" si="6"/>
-        <v>31.342384242308029</v>
+        <v>1.3729576206469809</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="H419">
         <f t="shared" ca="1" si="6"/>
-        <v>93.876733224915327</v>
+        <v>0.13439611286311182</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="H420">
         <f t="shared" ca="1" si="6"/>
-        <v>30.850001644654267</v>
+        <v>0.12296078997042792</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="H421">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55942819184744419</v>
+        <v>1.1334119597723733</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="H422">
         <f t="shared" ca="1" si="6"/>
-        <v>15.243825292202439</v>
+        <v>2.2630459239943446</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="H423">
         <f t="shared" ca="1" si="6"/>
-        <v>70.662100070193006</v>
+        <v>0.56193326449897774</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="H424">
         <f t="shared" ca="1" si="6"/>
-        <v>75.720499168807592</v>
+        <v>2.2394900198417895</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="H425">
         <f t="shared" ca="1" si="6"/>
-        <v>69.114487782924911</v>
+        <v>2.2064008569368507</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="H426">
         <f t="shared" ca="1" si="6"/>
-        <v>12.440446727783394</v>
+        <v>0.85216624939680652</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="H427">
         <f t="shared" ca="1" si="6"/>
-        <v>58.972499751502717</v>
+        <v>1.9180336659351296</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="H428">
         <f t="shared" ca="1" si="6"/>
-        <v>13.197286981588686</v>
+        <v>2.8587357163513332</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="H429">
         <f t="shared" ca="1" si="6"/>
-        <v>23.055718912862091</v>
+        <v>0.8789009355699573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="H430">
         <f t="shared" ca="1" si="6"/>
-        <v>98.633379583675378</v>
+        <v>2.5780933666421495</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="H431">
         <f t="shared" ca="1" si="6"/>
-        <v>51.370844633250734</v>
+        <v>2.0189806387275051</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="H432">
         <f t="shared" ca="1" si="6"/>
-        <v>55.411608515130652</v>
+        <v>1.7081832244242712</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="H433">
         <f t="shared" ca="1" si="6"/>
-        <v>90.181121569189656</v>
+        <v>1.7416398024537216</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="H434">
         <f t="shared" ca="1" si="6"/>
-        <v>36.497444827060562</v>
+        <v>0.25670874834995983</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="H435">
         <f t="shared" ca="1" si="6"/>
-        <v>28.497389176079867</v>
+        <v>0.25930825314136674</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12049,7 +12049,7 @@
       </c>
       <c r="H436">
         <f t="shared" ca="1" si="6"/>
-        <v>22.729880085888443</v>
+        <v>1.7031798306643953</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="H437">
         <f t="shared" ca="1" si="6"/>
-        <v>72.927142968768393</v>
+        <v>1.6046680876505452</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="H438">
         <f t="shared" ca="1" si="6"/>
-        <v>31.070750494232023</v>
+        <v>2.0295444663141886</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="H439">
         <f t="shared" ca="1" si="6"/>
-        <v>35.165146593628904</v>
+        <v>2.8469276075458279</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="H440">
         <f t="shared" ca="1" si="6"/>
-        <v>54.968298342214361</v>
+        <v>0.38016579934905015</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="H441">
         <f t="shared" ca="1" si="6"/>
-        <v>49.513587209242935</v>
+        <v>1.098712182671401</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12211,7 +12211,7 @@
       </c>
       <c r="H442">
         <f t="shared" ca="1" si="6"/>
-        <v>35.527720052474621</v>
+        <v>1.3031577986354526</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="H443">
         <f t="shared" ca="1" si="6"/>
-        <v>91.329172311859423</v>
+        <v>1.310135206543066</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12265,7 +12265,7 @@
       </c>
       <c r="H444">
         <f t="shared" ca="1" si="6"/>
-        <v>88.372382537210171</v>
+        <v>0.97460517920760936</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="H445">
         <f t="shared" ca="1" si="6"/>
-        <v>70.143284708172217</v>
+        <v>0.62021484014309636</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="H446">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7668498550631497</v>
+        <v>2.4469593341417073</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="H447">
         <f t="shared" ca="1" si="6"/>
-        <v>56.634127939560408</v>
+        <v>2.0672263941297291</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="H448">
         <f t="shared" ca="1" si="6"/>
-        <v>25.987567939518097</v>
+        <v>2.242923426861144</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="H449">
         <f t="shared" ca="1" si="6"/>
-        <v>48.872730012384061</v>
+        <v>1.1294746907235949</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12426,8 +12426,8 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <f t="shared" ref="H450:H497" ca="1" si="7">RAND()*100</f>
-        <v>34.128141554124383</v>
+        <f t="shared" ref="H450:H497" ca="1" si="7">RAND()*3</f>
+        <v>2.8155562501386755</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="H451">
         <f t="shared" ca="1" si="7"/>
-        <v>19.714053224235627</v>
+        <v>0.78752535508156252</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="H452">
         <f t="shared" ca="1" si="7"/>
-        <v>73.365378053040757</v>
+        <v>1.3501123049454231</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="H453">
         <f t="shared" ca="1" si="7"/>
-        <v>64.198537575065814</v>
+        <v>2.7647386885797842</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="H454">
         <f t="shared" ca="1" si="7"/>
-        <v>99.323976487404394</v>
+        <v>2.4525217787139497</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="H455">
         <f t="shared" ca="1" si="7"/>
-        <v>81.634269002158746</v>
+        <v>2.2885989058413032</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="H456">
         <f t="shared" ca="1" si="7"/>
-        <v>33.316496461251731</v>
+        <v>2.5610761484609057</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="H457">
         <f t="shared" ca="1" si="7"/>
-        <v>54.478247344485531</v>
+        <v>2.3189002512471717</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="H458">
         <f t="shared" ca="1" si="7"/>
-        <v>11.877683386314963</v>
+        <v>6.7679212832617797E-2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="H459">
         <f t="shared" ca="1" si="7"/>
-        <v>87.83377388060596</v>
+        <v>0.51969865208201182</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="H460">
         <f t="shared" ca="1" si="7"/>
-        <v>20.399940735534273</v>
+        <v>2.6371417100757304</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="H461">
         <f t="shared" ca="1" si="7"/>
-        <v>36.782309140066992</v>
+        <v>1.3151621976804821</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H462">
         <f t="shared" ca="1" si="7"/>
-        <v>55.445538049216438</v>
+        <v>0.36108929458286143</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="H463">
         <f t="shared" ca="1" si="7"/>
-        <v>77.733471064526825</v>
+        <v>2.7664932033528316</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="H464">
         <f t="shared" ca="1" si="7"/>
-        <v>34.436884732821028</v>
+        <v>2.3907804942456532</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="H465">
         <f t="shared" ca="1" si="7"/>
-        <v>98.859386679875371</v>
+        <v>0.31321294031846891</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12859,7 +12859,7 @@
       </c>
       <c r="H466">
         <f t="shared" ca="1" si="7"/>
-        <v>53.365846376102034</v>
+        <v>0.22773454823857353</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="H467">
         <f t="shared" ca="1" si="7"/>
-        <v>12.769847700284465</v>
+        <v>1.0855868965622912</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="H468">
         <f t="shared" ca="1" si="7"/>
-        <v>23.975973608867641</v>
+        <v>1.4379022173288645</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="H469">
         <f t="shared" ca="1" si="7"/>
-        <v>51.688978854841572</v>
+        <v>0.19923346009215004</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="H470">
         <f t="shared" ca="1" si="7"/>
-        <v>79.874101421932821</v>
+        <v>2.2330306000655256</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="H471">
         <f t="shared" ca="1" si="7"/>
-        <v>88.218882434479369</v>
+        <v>1.5226092594043323</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="H472">
         <f t="shared" ca="1" si="7"/>
-        <v>47.758344561662149</v>
+        <v>0.97116889859221511</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="H473">
         <f t="shared" ca="1" si="7"/>
-        <v>54.449564175760933</v>
+        <v>0.19553402673702547</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="H474">
         <f t="shared" ca="1" si="7"/>
-        <v>96.243337433234615</v>
+        <v>1.5516886170957833</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="H475">
         <f t="shared" ca="1" si="7"/>
-        <v>37.792260255959434</v>
+        <v>1.6973327780483141</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="H476">
         <f t="shared" ca="1" si="7"/>
-        <v>82.39091645327521</v>
+        <v>1.0596574344239151</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="H477">
         <f t="shared" ca="1" si="7"/>
-        <v>90.718505818250549</v>
+        <v>2.343077351116607E-2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13183,7 +13183,7 @@
       </c>
       <c r="H478">
         <f t="shared" ca="1" si="7"/>
-        <v>38.782031343109594</v>
+        <v>2.5319532295779492</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13210,7 +13210,7 @@
       </c>
       <c r="H479">
         <f t="shared" ca="1" si="7"/>
-        <v>77.851535149024926</v>
+        <v>0.37665894800840072</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="H480">
         <f t="shared" ca="1" si="7"/>
-        <v>94.458621817090645</v>
+        <v>1.1590578239863643</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="H481">
         <f t="shared" ca="1" si="7"/>
-        <v>82.46484015282563</v>
+        <v>1.3346247217779843</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="H482">
         <f t="shared" ca="1" si="7"/>
-        <v>61.339752554932083</v>
+        <v>2.630587315694954</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="H483">
         <f t="shared" ca="1" si="7"/>
-        <v>53.077851093171013</v>
+        <v>0.21303183041529905</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="H484">
         <f t="shared" ca="1" si="7"/>
-        <v>32.118750414473254</v>
+        <v>0.84086153414209408</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="H485">
         <f t="shared" ca="1" si="7"/>
-        <v>66.795762161180477</v>
+        <v>1.65036843529291</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="H486">
         <f t="shared" ca="1" si="7"/>
-        <v>55.860413358699823</v>
+        <v>2.8927651951442499</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="H487">
         <f t="shared" ca="1" si="7"/>
-        <v>34.727304026978231</v>
+        <v>1.2909608739184437</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="H488">
         <f t="shared" ca="1" si="7"/>
-        <v>74.18918039141461</v>
+        <v>1.1997216290410913</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13480,7 +13480,7 @@
       </c>
       <c r="H489">
         <f t="shared" ca="1" si="7"/>
-        <v>82.172479770053059</v>
+        <v>0.73554525416343619</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="H490">
         <f t="shared" ca="1" si="7"/>
-        <v>23.978447230480771</v>
+        <v>2.7028632173462137</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="H491">
         <f t="shared" ca="1" si="7"/>
-        <v>86.186695507385664</v>
+        <v>1.8307885663204884</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="H492">
         <f t="shared" ca="1" si="7"/>
-        <v>92.329032600626036</v>
+        <v>2.4129455430509257</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="H493">
         <f t="shared" ca="1" si="7"/>
-        <v>65.693448955328577</v>
+        <v>0.56186482031026375</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="H494">
         <f t="shared" ca="1" si="7"/>
-        <v>32.998777147058902</v>
+        <v>3.8701625035760356E-2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="H495">
         <f t="shared" ca="1" si="7"/>
-        <v>74.483639453797139</v>
+        <v>1.5851673977415088</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="H496">
         <f t="shared" ca="1" si="7"/>
-        <v>96.253188093071103</v>
+        <v>1.1831795168259294</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13696,7 +13696,7 @@
       </c>
       <c r="H497">
         <f t="shared" ca="1" si="7"/>
-        <v>53.486552752286165</v>
+        <v>1.2129786886526532</v>
       </c>
     </row>
   </sheetData>

--- a/exp_map.xlsx
+++ b/exp_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D99B7-025E-400C-884F-D294404B877F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442417D-510D-496E-95D6-E7DCA38716F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16788" yWindow="5700" windowWidth="10140" windowHeight="4764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,11 +346,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
@@ -375,8 +379,7 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <f ca="1">RAND()*3</f>
-        <v>0.42447580146680797</v>
+        <v>2.353729099968505</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -402,8 +405,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H65" ca="1" si="0">RAND()*3</f>
-        <v>1.4984767189595525</v>
+        <v>0.59660241157558613</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -429,8 +431,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8010405322600005</v>
+        <v>0.16790627890746346</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -456,8 +457,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7854536967211669</v>
+        <v>0.24847938880801612</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -483,8 +483,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7323184951531632E-2</v>
+        <v>1.3784777485783501</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,8 +509,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72993488754563129</v>
+        <v>2.310032245357867</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -537,8 +535,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.82866248182933178</v>
+        <v>1.6223193757579879</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -564,8 +561,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.817889321109678</v>
+        <v>0.68451940046401649</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -591,8 +587,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.518088544648813</v>
+        <v>1.2491664115959287</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -618,8 +613,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80598079488851404</v>
+        <v>0.59346113008182344</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -645,8 +639,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0338204620431299</v>
+        <v>1.4175563486465474</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -672,8 +665,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5559338129895757</v>
+        <v>2.3918714383271071</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -699,8 +691,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3948275905404217</v>
+        <v>1.6120304181523828</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -726,8 +717,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.298064574585158</v>
+        <v>2.8174863477028778</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -753,8 +743,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3257924354837574</v>
+        <v>2.6243662041097142</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -780,8 +769,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6029649274540505</v>
+        <v>1.1904244849337666</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -807,8 +795,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6680992187827948</v>
+        <v>3.0064743840182357</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -834,8 +821,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63136858351984204</v>
+        <v>3.8091471954477507</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -861,8 +847,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99808903321706388</v>
+        <v>3.8616089870357668</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -888,8 +873,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6007969207315467</v>
+        <v>2.8739436902372359</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -915,8 +899,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6537158740063216</v>
+        <v>1.7732603093063597</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -942,8 +925,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2289823188703646</v>
+        <v>0.27210165059071978</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -969,8 +951,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1075430210372825</v>
+        <v>1.1960299168189628</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -980,10 +961,6 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53881512312921187</v>
-      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
@@ -1008,8 +985,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5967304905044171</v>
+        <v>1.4606989219146769</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1035,8 +1011,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1580858098884113</v>
+        <v>2.3664103763652529</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1062,8 +1037,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4749047629661902</v>
+        <v>1.5716695087050874</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1089,8 +1063,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5600465577133216</v>
+        <v>0.84788927532903258</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1116,8 +1089,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94516047483727872</v>
+        <v>2.3313323594816335</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1143,8 +1115,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2811469830237008</v>
+        <v>1.7200070738971198</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1170,8 +1141,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1448295836740223</v>
+        <v>2.2200332647005121</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1197,8 +1167,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4745096115806744</v>
+        <v>0.94306466920795973</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1224,8 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46085636430582289</v>
+        <v>3.5873754358437973</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1251,8 +1219,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9301495920552472</v>
+        <v>7.9800435049427354E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1278,8 +1245,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.66907691044795159</v>
+        <v>2.0139593057403165</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1305,8 +1271,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30170183644125981</v>
+        <v>3.0936839815188772</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1332,8 +1297,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6566949802314834</v>
+        <v>1.9652519938664801</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1359,8 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73653470757193029</v>
+        <v>1.9965167347087762</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1386,8 +1349,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.744663899350142</v>
+        <v>1.6852288461267304</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1413,8 +1375,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2230961475744562</v>
+        <v>1.6803651340477468</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,8 +1401,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50860442671369455</v>
+        <v>2.3919412206393322</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1467,8 +1427,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0562948739895162</v>
+        <v>3.5585604081405187</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1494,8 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2122630632217829</v>
+        <v>3.3283102456331264</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1521,8 +1479,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6065410004397127</v>
+        <v>3.6423569219465617</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1548,8 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0386975033354773</v>
+        <v>3.4384500007301773</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1575,8 +1531,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4379896494214472</v>
+        <v>3.7172977661246245</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1602,8 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37988508790706066</v>
+        <v>3.7279332875204085</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1629,8 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55027274980368457</v>
+        <v>0.72732735776944202</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1656,8 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1792168923651443</v>
+        <v>0.43912347147062802</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1683,8 +1635,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57865094128038186</v>
+        <v>2.0267784388056822</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1710,8 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5735796445396093</v>
+        <v>1.314657577457774</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1737,8 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5234117292031608</v>
+        <v>2.3953069696422657</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1764,8 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5403869664772698</v>
+        <v>1.5000124263208092</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1791,8 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7877460903677012</v>
+        <v>2.9178354313547108</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1818,8 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.41254745122451619</v>
+        <v>1.324650145210811</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1845,8 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.74626999220587353</v>
+        <v>0.35895426536538533</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1872,8 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3567797053945965</v>
+        <v>1.8162775329187735</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1899,8 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9575561759462803</v>
+        <v>2.3430057917457345</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,8 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26994403756420715</v>
+        <v>1.2373622244898463</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1953,8 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1702221450574042</v>
+        <v>2.2207934945488024</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1980,8 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36455396522016703</v>
+        <v>0.90532046633112173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2007,8 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6613447701451483</v>
+        <v>0.57777222669041617</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2034,8 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3948390168595792</v>
+        <v>1.7232738061894133</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2061,8 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.0689605283430788E-2</v>
+        <v>2.3657452661902871</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2088,8 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7127586659166385</v>
+        <v>2.2733407247752404</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2115,8 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" ca="1" si="1">RAND()*3</f>
-        <v>1.9406674113543185</v>
+        <v>0.56860747981069149</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2142,8 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75718626313028548</v>
+        <v>0.85648669545656164</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2169,8 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1822314232900726</v>
+        <v>1.5045486172232425</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2196,8 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6017919473140414</v>
+        <v>1.8708670005676464</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2223,8 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30342424903979137</v>
+        <v>1.242809644327076</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2250,8 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7068610182518624</v>
+        <v>2.9683231486381696</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2277,8 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5193912393527684</v>
+        <v>2.2745400137710909</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2304,8 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91018488541607889</v>
+        <v>1.7319824623605955</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2331,8 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.2042470402447241E-2</v>
+        <v>2.4223159771718272</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2358,8 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80617779939191392</v>
+        <v>0.62776562590657614</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2385,8 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.926861947531588</v>
+        <v>1.6844150174959838</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2412,8 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6162433424641508</v>
+        <v>0.14504350942116495</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2439,8 +2363,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3795024022626037</v>
+        <v>0.53571928389944756</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2466,8 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2692227190365282</v>
+        <v>1.9583260930310264</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2493,8 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.25819464123810165</v>
+        <v>8.2743487839801455E-3</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2520,8 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9652566360360186</v>
+        <v>2.5585160872845547</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2547,8 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2763225609482838</v>
+        <v>8.1278826285482997E-2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2574,8 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9198876211639191</v>
+        <v>0.12530927700794336</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2601,8 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8135351241894435</v>
+        <v>1.551954723590244</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,8 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8019311914744147</v>
+        <v>0.27864168388266919</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2655,8 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32639228921360863</v>
+        <v>1.988570531809174</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2682,8 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4340038614068762</v>
+        <v>2.2632526070874861</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2709,8 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8432073765448114</v>
+        <v>2.6692099998160841</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2736,8 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5425533779705565</v>
+        <v>2.7236206803159337</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2763,8 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.95620371279507299</v>
+        <v>0.40991925056638179</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2790,8 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8619798296997367</v>
+        <v>2.9877958052994593</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2817,8 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91580636213316136</v>
+        <v>2.4140817419612368</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2844,8 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92759662764490158</v>
+        <v>0.29912490871725783</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2871,8 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50443894797027899</v>
+        <v>0.19960925538941521</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2898,8 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3621560087601732</v>
+        <v>0.53764206886685717</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2925,8 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2170055607880244</v>
+        <v>2.3235367630836956</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2952,8 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78285284345642103</v>
+        <v>1.6845043602693346</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2979,8 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0803338942765257</v>
+        <v>0.37262567187433693</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3006,8 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0103226059717474</v>
+        <v>2.2310684805293151</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3033,8 +2935,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91283411474108211</v>
+        <v>0.47607341489578281</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3060,8 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34064859477948317</v>
+        <v>2.4173516756889439</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3087,8 +2987,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89670731554408567</v>
+        <v>1.1562775379584858</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3114,8 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5036506764592805</v>
+        <v>0.71578027507762432</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3141,8 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1835885734584632</v>
+        <v>0.87356233590478105</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3168,8 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.8835656876283563</v>
+        <v>2.817323495782845</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3195,8 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10232343625559825</v>
+        <v>2.5830385398693476</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3222,8 +3117,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2918250817891814</v>
+        <v>2.2884065982632844</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3249,8 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2028055943888467</v>
+        <v>2.076327975693657</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3276,8 +3169,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.45833440018745009</v>
+        <v>2.2373704460780512</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3303,8 +3195,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88320680310072575</v>
+        <v>0.17322833973078133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3330,8 +3221,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9232824066074516</v>
+        <v>0.19266643916970894</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3357,8 +3247,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.956060387252887</v>
+        <v>1.9312736210065227</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3384,8 +3273,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.7194178545613474</v>
+        <v>2.8289772336057775</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3411,8 +3299,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47161334933577914</v>
+        <v>0.68261879249697632</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3438,8 +3325,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8859493669084306</v>
+        <v>2.3205728373725476E-2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3465,8 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4140381058654008</v>
+        <v>2.1203387474605098</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3492,8 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2532548624102793</v>
+        <v>3.5687438949317043</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3519,8 +3403,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.76353893711561194</v>
+        <v>3.6543814207764966</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3546,8 +3429,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.3061876925229776</v>
+        <v>1.3757540713803516</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3573,8 +3455,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6953887103565657</v>
+        <v>2.8141313166530755</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3600,8 +3481,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75472147983145665</v>
+        <v>0.59969426618603661</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3627,8 +3507,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9983341420437799</v>
+        <v>2.7002916878391776</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3654,8 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9761841505901172</v>
+        <v>1.2432890201983431</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3681,8 +3559,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0212992559348448</v>
+        <v>1.7750393564355915</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3708,8 +3585,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27607619637745084</v>
+        <v>0.23551749957905921</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3735,8 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1817467229331342</v>
+        <v>2.389190162097127</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3762,8 +3637,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.9342604284914282</v>
+        <v>1.9345687043446083</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3789,8 +3663,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31494997680829273</v>
+        <v>2.3098072217499324</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3816,8 +3689,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2322043493622852</v>
+        <v>0.92387452480328269</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3843,8 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H193" ca="1" si="2">RAND()*3</f>
-        <v>1.2920731301134336</v>
+        <v>2.6908090700585614</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3870,8 +3741,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8919657469675103</v>
+        <v>2.5193742365271499</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3897,8 +3767,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.6378489619561565</v>
+        <v>2.0599402585181967</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3924,8 +3793,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.678182158159764</v>
+        <v>2.3084733783383795</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3951,8 +3819,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4492020559089553</v>
+        <v>2.6317314221684769</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3978,8 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5503033884760002</v>
+        <v>2.1134399837790663</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4005,8 +3871,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.41518421619507284</v>
+        <v>2.1678860631251027</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,8 +3897,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.858959532390724</v>
+        <v>0.18960778774200471</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4059,8 +3923,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0286349339119929</v>
+        <v>2.1923596764968618</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4086,8 +3949,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.869303486842063</v>
+        <v>1.2567942463943602</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4113,8 +3975,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9722693667089335</v>
+        <v>1.7717359728486022</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4140,8 +4001,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4333792822066176</v>
+        <v>1.9516433251554139</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4167,8 +4027,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0092260924358181</v>
+        <v>7.9619448558772343E-2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4194,8 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8827249566719324</v>
+        <v>2.9887011094855453</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4221,8 +4079,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1565192806871676</v>
+        <v>1.1112249849736369</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4248,8 +4105,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.225800341308942</v>
+        <v>0.16250746252555592</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4275,8 +4131,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58181972006026061</v>
+        <v>2.5072472269234414</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4302,8 +4157,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9302966753779613</v>
+        <v>3.164442783658683E-3</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4329,8 +4183,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26267864953439957</v>
+        <v>1.6277388240707196</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4356,8 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.63783706615858116</v>
+        <v>0.70803687640102375</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4383,8 +4235,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12214735566718682</v>
+        <v>1.2597038481377467</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4410,8 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7061781519497718</v>
+        <v>2.7535162473294457</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4437,8 +4287,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.4516996728022122</v>
+        <v>1.2285473985502053</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4464,8 +4313,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7086694638248265</v>
+        <v>1.5494181273680852</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4491,8 +4339,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.55576519195297602</v>
+        <v>0.55687297463844665</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4518,8 +4365,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.722668211179704</v>
+        <v>0.31524179144193498</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4545,8 +4391,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.26319928218481137</v>
+        <v>2.9174639953749542</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4572,8 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.98231123230569628</v>
+        <v>0.12428202534416322</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4599,8 +4443,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3300407428876684</v>
+        <v>0.25660731587668251</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4626,8 +4469,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.94532296392276982</v>
+        <v>1.0448261961293088</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4653,8 +4495,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3692431445574282</v>
+        <v>0.89144727240708688</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4680,8 +4521,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7580110596894363</v>
+        <v>0.78085435635002631</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4707,21 +4547,13 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5284729896324487</v>
+        <v>1.389423982246599</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="C163">
         <v>163</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2441743294270009</v>
-      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
@@ -4746,8 +4578,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29411085070636867</v>
+        <v>2.1636395544145621</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4773,8 +4604,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.2787532026647268</v>
+        <v>0.53848429926172847</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4800,8 +4630,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.215841294771056</v>
+        <v>1.778644220475698</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4827,8 +4656,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.175141160864059</v>
+        <v>5.5756620619411557E-3</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4854,8 +4682,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1004292370647952</v>
+        <v>0.77877187131732872</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4881,8 +4708,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9884555616820867</v>
+        <v>2.9967082406432848</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4908,8 +4734,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.1238263736187561E-2</v>
+        <v>2.1135866856707421</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4935,8 +4760,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16455927960508221</v>
+        <v>0.25164813754760962</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4962,8 +4786,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5716892436988119</v>
+        <v>0.42151911558260002</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4989,8 +4812,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9954205201268573</v>
+        <v>0.47042419956295833</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5016,8 +4838,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8285081904697122</v>
+        <v>2.6793285649923702</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5043,8 +4864,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2455380858418721</v>
+        <v>1.0014156158425624</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5070,8 +4890,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6251328613241607</v>
+        <v>2.3217908755033454</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5097,8 +4916,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3902873421798012</v>
+        <v>1.8307361480046358</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5124,8 +4942,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.0981269318084186</v>
+        <v>1.4906948663456354</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5151,8 +4968,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.582270790821156</v>
+        <v>1.8667357167714203</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5178,8 +4994,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6466012919037045</v>
+        <v>1.3438471740628066</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5205,8 +5020,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3219123154544103</v>
+        <v>0.49339577812204605</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5232,8 +5046,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.28997833908397286</v>
+        <v>1.4775332565519417</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5259,8 +5072,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6864820700864629</v>
+        <v>1.1277961873084648</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5286,8 +5098,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0673304115277862</v>
+        <v>0.15271709721720084</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5313,8 +5124,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.30651607098198841</v>
+        <v>2.1558158206765414</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5340,8 +5150,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9882033566504338</v>
+        <v>0.96453225603758364</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5367,8 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.76899103569281169</v>
+        <v>2.5971982854406654</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5394,8 +5202,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.7968275399531265</v>
+        <v>1.9719660370959033</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5421,8 +5228,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7699052106935005</v>
+        <v>0.81354078241838934</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5448,8 +5254,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.0294217640483931</v>
+        <v>1.6363522716555594</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5475,8 +5280,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.0650542789956274</v>
+        <v>2.4795969173378185</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5502,8 +5306,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8607673079020768</v>
+        <v>2.9574975215104162</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5529,8 +5332,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4833130245930245</v>
+        <v>0.5269117848061825</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5556,8 +5358,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H257" ca="1" si="3">RAND()*3</f>
-        <v>0.14296456468545959</v>
+        <v>2.0714419388765664</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5583,8 +5384,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4662068149870002</v>
+        <v>1.9222194698711066</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5610,8 +5410,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.78597038263955454</v>
+        <v>1.3746120380224203</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5637,8 +5436,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16453396108060225</v>
+        <v>0.83615138118311405</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5664,8 +5462,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7416493132055093</v>
+        <v>0.57453488446559686</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5691,8 +5488,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4417693687492092</v>
+        <v>0.86034499972317924</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5718,8 +5514,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6551032701300072</v>
+        <v>1.6463287457588507</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5745,8 +5540,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4998505435233607</v>
+        <v>0.46449080903617479</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5772,8 +5566,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.9680030596466866</v>
+        <v>1.9993459180103983</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5799,8 +5592,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77563178751983952</v>
+        <v>2.9563231050673702</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5826,8 +5618,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.5983327405077983</v>
+        <v>1.4376125210706783</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5853,8 +5644,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0081256869868476</v>
+        <v>2.3551890447498263</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5880,8 +5670,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.30878690710684931</v>
+        <v>1.9597470026303778</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5907,8 +5696,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.6334207041950579</v>
+        <v>0.21414497021860968</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5934,8 +5722,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.1134175380810953</v>
+        <v>0.93121304634814883</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5961,8 +5748,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.23723664462478711</v>
+        <v>1.8685755802930006</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5988,8 +5774,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.439496848172553</v>
+        <v>1.6039450725648234</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6015,8 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8377798778494392</v>
+        <v>2.3781398001245777</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6042,8 +5826,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2871813793585396</v>
+        <v>6.3723997055732506E-2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6069,8 +5852,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7984316986230038</v>
+        <v>1.487916487831491</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6096,8 +5878,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.40947261430853366</v>
+        <v>2.9962168997980356</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6123,8 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7772757787845257</v>
+        <v>2.4381289521618865</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6150,8 +5930,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.89202194738755536</v>
+        <v>0.718297567052118</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6177,8 +5956,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.66662185140438346</v>
+        <v>2.3270531396623029</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6204,8 +5982,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8916666073235489</v>
+        <v>0.71502734259982781</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6231,8 +6008,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.40893946053875718</v>
+        <v>1.0429358757192473</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6258,8 +6034,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7325475001971768</v>
+        <v>1.9148475683790256</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6285,8 +6060,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.84608619767677773</v>
+        <v>2.0947553614764955</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6312,8 +6086,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.9844382576300035</v>
+        <v>1.9600589413398188</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6326,10 +6099,6 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="H223">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3833911286257088</v>
-      </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224">
@@ -6354,8 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.7001300667050705</v>
+        <v>2.1374887603926154</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6381,8 +6149,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.5914464915741946</v>
+        <v>1.8731388590484965</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6408,8 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3648608719104827</v>
+        <v>1.8944053289598597</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6435,8 +6201,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.4672549023817463</v>
+        <v>1.507402550762948</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6462,8 +6227,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.948118692044809</v>
+        <v>1.9589888944435843</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6489,8 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0577001965141282</v>
+        <v>2.6072526808424481</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6516,8 +6279,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.86462601975509523</v>
+        <v>3.299679412946209</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6543,8 +6305,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.1761147497431779</v>
+        <v>3.3010327080144082</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6570,8 +6331,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2106787037305975</v>
+        <v>3.5011943412046338</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6597,8 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0862848540742815</v>
+        <v>2.7581079906921762</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6624,8 +6383,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.569958247118906</v>
+        <v>1.7528140625245219</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6651,8 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.92951659015058452</v>
+        <v>0.70396531879653768</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6678,8 +6435,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.57206715985817602</v>
+        <v>0.34547786297764904</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6705,8 +6461,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.0807134416467452</v>
+        <v>2.8442991437974183</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6732,8 +6487,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8774196198584616</v>
+        <v>1.3028292733097051</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6759,8 +6513,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7804118037701007</v>
+        <v>0.6205323706477992</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6786,8 +6539,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7362111302750169</v>
+        <v>1.9722708705600098</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6813,8 +6565,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.8909135191903759</v>
+        <v>1.194826568971332</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6840,8 +6591,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4485293477266694</v>
+        <v>0.4517931915773592</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6867,8 +6617,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.700321295434251</v>
+        <v>1.3399127472032029</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6894,8 +6643,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0102619426446635</v>
+        <v>1.5197587378702826</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6921,8 +6669,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.1325481554983758</v>
+        <v>2.1571815709619324</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6948,8 +6695,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2358325325227115</v>
+        <v>0.12524993419189456</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6975,8 +6721,7 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3544970254215487E-2</v>
+        <v>2.9460281044041601</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7002,8 +6747,7 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4451159617240599</v>
+        <v>2.2953570831771564</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7029,8 +6773,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.80174341184352693</v>
+        <v>1.9248938834481759</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7056,8 +6799,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.2653203831182909E-2</v>
+        <v>0.88519456625829884</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7083,8 +6825,7 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2089780389116882</v>
+        <v>0.48360429830278739</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7110,8 +6851,7 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.5910300288066717</v>
+        <v>3.5064794460152089</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7137,8 +6877,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7243827125575009</v>
+        <v>3.8059862324643992</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7164,8 +6903,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.855646118778375</v>
+        <v>1.6606486493571286</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7191,8 +6929,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.59281834654962084</v>
+        <v>1.2238782243229624</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7218,8 +6955,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.42124703621070525</v>
+        <v>1.5509727025322291</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7245,8 +6981,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7080386135124268</v>
+        <v>1.9693429363118584</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7272,8 +7007,7 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <f t="shared" ref="H258:H321" ca="1" si="4">RAND()*3</f>
-        <v>0.67399510708973109</v>
+        <v>0.27858275781013708</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7299,8 +7033,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.54327390941975284</v>
+        <v>2.469610837980186</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7326,8 +7059,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.321041160594965</v>
+        <v>2.9453716587594143</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7353,8 +7085,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.36881219968568235</v>
+        <v>2.2351847222038366</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7380,8 +7111,7 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1739246408919142</v>
+        <v>6.6007321640600192E-2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7407,8 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.201428974526376</v>
+        <v>2.7242500766040352</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7434,8 +7163,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.8961408945072411</v>
+        <v>0.6226827849008445</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7461,8 +7189,7 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0713387070704441</v>
+        <v>1.5943317731197335</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7488,8 +7215,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0429971792670805</v>
+        <v>1.4334507136316397</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7515,8 +7241,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8479459443147346</v>
+        <v>1.3895071758682918</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7542,8 +7267,7 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.78484528320322899</v>
+        <v>1.0099670595623951</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7569,8 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5770824342822722</v>
+        <v>0.77550432560768356</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7596,8 +7319,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9682995359050257</v>
+        <v>2.9405279172165155</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7607,10 +7329,6 @@
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="H271">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.4946085780721692</v>
-      </c>
     </row>
     <row r="272" spans="1:8">
       <c r="C272">
@@ -7619,10 +7337,6 @@
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="H272">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.5948410575600107</v>
-      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273">
@@ -7647,8 +7361,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.11696616398336457</v>
+        <v>1.7725301696733029</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7674,8 +7387,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.75721675929572174</v>
+        <v>0.13238183837484296</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7701,8 +7413,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.4384766653017653</v>
+        <v>1.5512945852339564</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7728,8 +7439,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.86698689183068411</v>
+        <v>0.59408654186434029</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7755,8 +7465,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.6591241428613599</v>
+        <v>1.3453385164216081</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7782,8 +7491,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3992748386834277</v>
+        <v>2.1218791520180567</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7809,8 +7517,7 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.042687915486352</v>
+        <v>2.240644757502789</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7836,8 +7543,7 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.32925738357048007</v>
+        <v>0.34760543527305932</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7863,8 +7569,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.60879050748279129</v>
+        <v>1.3263927224252421</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7890,8 +7595,7 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.10885029191914353</v>
+        <v>1.5389440496941842</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7917,8 +7621,7 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8338802579629996</v>
+        <v>2.2056066660723079</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7944,8 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5957153714279919</v>
+        <v>2.4264465149224086</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7971,8 +7673,7 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7952958890354429</v>
+        <v>1.9046289276358612</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7998,8 +7699,7 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9385856967361204</v>
+        <v>3.4963472132628537</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8025,8 +7725,7 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.2760387285356805</v>
+        <v>3.4094249221131268</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8052,8 +7751,7 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.5957283612095476</v>
+        <v>3.1048095771038255</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8079,8 +7777,7 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.526466386787845</v>
+        <v>2.7569328501135484</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8106,8 +7803,7 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.80782876858591879</v>
+        <v>2.3186917315255515</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8133,8 +7829,7 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0181503617126419</v>
+        <v>1.0686956312359728</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8160,8 +7855,7 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8123772497114863</v>
+        <v>0.70850338049027761</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8187,8 +7881,7 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.78550048135473682</v>
+        <v>1.7502076227201175</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8214,8 +7907,7 @@
         <v>0</v>
       </c>
       <c r="H294">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.2828401478347717</v>
+        <v>2.4035780784110798</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8241,8 +7933,7 @@
         <v>0</v>
       </c>
       <c r="H295">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.633556145858345</v>
+        <v>2.0827036767887992</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8268,8 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H296">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.1049800995366628</v>
+        <v>2.3027001411249812</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8295,8 +7985,7 @@
         <v>0</v>
       </c>
       <c r="H297">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8157289788677935</v>
+        <v>1.9391932044948503</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8322,8 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H298">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.96060542376168789</v>
+        <v>2.487410503248296</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8349,8 +8037,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.5918588821784398</v>
+        <v>0.7211330869882987</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8376,8 +8063,7 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.1776326927038623</v>
+        <v>2.3371945032119505</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8403,8 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0487431782297532</v>
+        <v>1.7930455647781383</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8430,8 +8115,7 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.709659861549377</v>
+        <v>1.056141779588506</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8457,8 +8141,7 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.80158365978943469</v>
+        <v>2.6470128937121373</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8484,8 +8167,7 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.310895544111363</v>
+        <v>1.3350006787814368</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8511,8 +8193,7 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.93469378098040901</v>
+        <v>1.0697063419213628</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8538,8 +8219,7 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.8903651146603939</v>
+        <v>2.161269011054193</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8565,8 +8245,7 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7252099257007174</v>
+        <v>5.0829112128942922E-2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8592,8 +8271,7 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7319468256709545</v>
+        <v>0.42432004778856514</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8619,8 +8297,7 @@
         <v>0</v>
       </c>
       <c r="H309">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.69200460918422135</v>
+        <v>1.5865099015220432</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8646,8 +8323,7 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9309997635245568</v>
+        <v>3.5135724762216185</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8673,8 +8349,7 @@
         <v>0</v>
       </c>
       <c r="H311">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9171208133455528</v>
+        <v>2.4854728194261329</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8700,8 +8375,7 @@
         <v>0</v>
       </c>
       <c r="H312">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.3614297896600522</v>
+        <v>2.1696424620155752E-2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8727,8 +8401,7 @@
         <v>0</v>
       </c>
       <c r="H313">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.8865677004567245</v>
+        <v>0.36029060445338357</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8754,8 +8427,7 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.47773021296917417</v>
+        <v>3.8810108608931801</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8781,8 +8453,7 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.57643857725317271</v>
+        <v>1.9091447713840803</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8808,8 +8479,7 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.7019465309927595</v>
+        <v>9.047632638014258E-2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8835,8 +8505,7 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.81505612889162637</v>
+        <v>0.14422244609317625</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8862,8 +8531,7 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6953399362069907</v>
+        <v>1.5324822191150507</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8889,8 +8557,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4893726030679828</v>
+        <v>0.55675160001398194</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8916,8 +8583,7 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.5648998504019924E-2</v>
+        <v>2.9118303020018725</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8943,8 +8609,7 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0613209690189764</v>
+        <v>0.82242063780567243</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8970,8 +8635,7 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <f t="shared" ref="H322:H385" ca="1" si="5">RAND()*3</f>
-        <v>1.200629176125958</v>
+        <v>2.5739239154194387</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8997,8 +8661,7 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.19767978476048687</v>
+        <v>1.7805504963198873</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9024,8 +8687,7 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.33478044642586824</v>
+        <v>2.0767878254590393</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9051,8 +8713,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4114402444564127</v>
+        <v>2.9528641244882534</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9078,8 +8739,7 @@
         <v>0</v>
       </c>
       <c r="H326">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2579985111241951</v>
+        <v>0.16228734095093811</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9105,8 +8765,7 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2704449975085601</v>
+        <v>0.64101625771953896</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9132,8 +8791,7 @@
         <v>0</v>
       </c>
       <c r="H328">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7813538471748265</v>
+        <v>0.7607784052804516</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9159,8 +8817,7 @@
         <v>0</v>
       </c>
       <c r="H329">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.3244530841318647</v>
+        <v>0.82334117704226717</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9186,8 +8843,7 @@
         <v>0</v>
       </c>
       <c r="H330">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2190121133177405</v>
+        <v>1.1509785676516011</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9213,8 +8869,7 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8548104252605437</v>
+        <v>2.8714446865058387</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9240,8 +8895,7 @@
         <v>0</v>
       </c>
       <c r="H332">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2501251429545328</v>
+        <v>0.36066263786908248</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9267,8 +8921,7 @@
         <v>0</v>
       </c>
       <c r="H333">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.475842252746328</v>
+        <v>0.52256769444958362</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9294,8 +8947,7 @@
         <v>0</v>
       </c>
       <c r="H334">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9157328232275663</v>
+        <v>2.5475109618426512</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9321,8 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1771090092696843E-2</v>
+        <v>2.3998209383745341</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9348,8 +8999,7 @@
         <v>0</v>
       </c>
       <c r="H336">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.97837875877892577</v>
+        <v>0.81927523374897671</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9375,8 +9025,7 @@
         <v>0</v>
       </c>
       <c r="H337">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.6977501872759</v>
+        <v>2.736174878604567</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9402,8 +9051,7 @@
         <v>0</v>
       </c>
       <c r="H338">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7969809669973604</v>
+        <v>2.9149230781282767</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9429,8 +9077,7 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.74819598097719664</v>
+        <v>2.9067132668500935</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9456,8 +9103,7 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.58734410617362265</v>
+        <v>2.3169066513601968</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9483,8 +9129,7 @@
         <v>0</v>
       </c>
       <c r="H341">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.62023368242673</v>
+        <v>0.68047012178862731</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9510,8 +9155,7 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.9957169201534151</v>
+        <v>2.480542430913582</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9537,8 +9181,7 @@
         <v>0</v>
       </c>
       <c r="H343">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.9579439804913958</v>
+        <v>2.0291217575438236</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9564,8 +9207,7 @@
         <v>0</v>
       </c>
       <c r="H344">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.8760985288805615</v>
+        <v>2.1060431145274126</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9591,8 +9233,7 @@
         <v>0</v>
       </c>
       <c r="H345">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1696830677034864</v>
+        <v>0.48362151630729588</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9618,8 +9259,7 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.95516521579459202</v>
+        <v>2.2534001504631966</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9645,8 +9285,7 @@
         <v>0</v>
       </c>
       <c r="H347">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1854003567857374</v>
+        <v>2.1734038207047464</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9672,8 +9311,7 @@
         <v>0</v>
       </c>
       <c r="H348">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5127419036490588</v>
+        <v>0.84634639576734005</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9699,8 +9337,7 @@
         <v>0</v>
       </c>
       <c r="H349">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.0583299459849962</v>
+        <v>0.63884521501984148</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9726,8 +9363,7 @@
         <v>0</v>
       </c>
       <c r="H350">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.128735601518073</v>
+        <v>1.0811953059097763</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9753,8 +9389,7 @@
         <v>0</v>
       </c>
       <c r="H351">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.95568421711335472</v>
+        <v>3.660238271344753</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9780,8 +9415,7 @@
         <v>0</v>
       </c>
       <c r="H352">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.0838283884577691</v>
+        <v>3.9837506059126877</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9807,8 +9441,7 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.22964557194943713</v>
+        <v>1.3953463691631698</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9834,8 +9467,7 @@
         <v>0</v>
       </c>
       <c r="H354">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4282517654036408</v>
+        <v>0.18972538575332154</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9861,8 +9493,7 @@
         <v>0</v>
       </c>
       <c r="H355">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.23304471952601791</v>
+        <v>3.3992237948260544</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9888,8 +9519,7 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.694224956870618</v>
+        <v>0.68219152014038531</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9915,8 +9545,7 @@
         <v>0</v>
       </c>
       <c r="H357">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.660414733862613</v>
+        <v>2.2454153799320324</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9942,8 +9571,7 @@
         <v>0</v>
       </c>
       <c r="H358">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8179340737257221</v>
+        <v>0.18863004170313602</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9969,8 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H359">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.287148345533482</v>
+        <v>2.6733799911429474</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9996,8 +9623,7 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.5691868193726899</v>
+        <v>4.6687853269723578E-2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10023,8 +9649,7 @@
         <v>0</v>
       </c>
       <c r="H361">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1178590045311232</v>
+        <v>0.36026389570986272</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10050,8 +9675,7 @@
         <v>0</v>
       </c>
       <c r="H362">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1504390517724259</v>
+        <v>2.9996888868305049</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10077,8 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H363">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1949255592077632</v>
+        <v>1.308259144476811</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10104,8 +9727,7 @@
         <v>0</v>
       </c>
       <c r="H364">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.8305979911476875E-2</v>
+        <v>3.9427915748145734</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10131,8 +9753,7 @@
         <v>0</v>
       </c>
       <c r="H365">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.27025750496236378</v>
+        <v>3.8104416218411146</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10158,8 +9779,7 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6151941678200448</v>
+        <v>2.3774455354817023</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10185,8 +9805,7 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.51557093409544796</v>
+        <v>3.4973076075360168</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10212,8 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H368">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.9889258337514901</v>
+        <v>2.5103078089588546</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10239,8 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H369">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.99946653137440222</v>
+        <v>2.6791213467962298</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10266,8 +9883,7 @@
         <v>0</v>
       </c>
       <c r="H370">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1301383766944366</v>
+        <v>2.1391198194636662</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10293,8 +9909,7 @@
         <v>0</v>
       </c>
       <c r="H371">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4545478341974247</v>
+        <v>2.5828619753458057</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10320,8 +9935,7 @@
         <v>0</v>
       </c>
       <c r="H372">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1859010617216548</v>
+        <v>1.1477822212076263</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10347,8 +9961,7 @@
         <v>0</v>
       </c>
       <c r="H373">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.7721737424376185</v>
+        <v>0.90189954531481809</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10374,8 +9987,7 @@
         <v>0</v>
       </c>
       <c r="H374">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5158102435135969</v>
+        <v>0.16598446574307257</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10401,8 +10013,7 @@
         <v>0</v>
       </c>
       <c r="H375">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2174148566293312</v>
+        <v>2.7253820821399026</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10428,8 +10039,7 @@
         <v>0</v>
       </c>
       <c r="H376">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.0201783201894443</v>
+        <v>2.3354777258727974</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10455,8 +10065,7 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.24088146546228051</v>
+        <v>5.859312291248242E-2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10482,8 +10091,7 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.1558476606654682E-2</v>
+        <v>2.9918787421935478</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10509,8 +10117,7 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.49819904485647382</v>
+        <v>1.7741765214520913</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10536,8 +10143,7 @@
         <v>0</v>
       </c>
       <c r="H380">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.68353778114471342</v>
+        <v>1.4485030332308375</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10563,8 +10169,7 @@
         <v>0</v>
       </c>
       <c r="H381">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.5946291582816512</v>
+        <v>2.8262559252797268</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10590,8 +10195,7 @@
         <v>0</v>
       </c>
       <c r="H382">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.80235557326695051</v>
+        <v>0.24873545352415871</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10617,8 +10221,7 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.33358677325830166</v>
+        <v>0.75221504108142245</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10644,8 +10247,7 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.8261371332502003</v>
+        <v>1.641941518928405</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10671,8 +10273,7 @@
         <v>0</v>
       </c>
       <c r="H385">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.9502550384426045</v>
+        <v>0.58031102120646549</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10698,8 +10299,7 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <f t="shared" ref="H386:H449" ca="1" si="6">RAND()*3</f>
-        <v>2.1428248602447533</v>
+        <v>0.62027878924725843</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10725,8 +10325,7 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.2935365520212381</v>
+        <v>1.9867804331619272</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10752,8 +10351,7 @@
         <v>0</v>
       </c>
       <c r="H388">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.6927012049714829</v>
+        <v>2.093503637100449</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10779,8 +10377,7 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.516155628567879</v>
+        <v>6.9804772669928905E-2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10806,8 +10403,7 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.7293167648366787</v>
+        <v>1.4325712420344472</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10833,8 +10429,7 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.52924573342754466</v>
+        <v>2.5961011490781765</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10860,8 +10455,7 @@
         <v>0</v>
       </c>
       <c r="H392">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.68673805839989921</v>
+        <v>2.5009508628594594</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10887,8 +10481,7 @@
         <v>0</v>
       </c>
       <c r="H393">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.5892497739505789</v>
+        <v>1.5091509716835303</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10914,8 +10507,7 @@
         <v>0</v>
       </c>
       <c r="H394">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.57829886005077924</v>
+        <v>0.59777871589217357</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10941,8 +10533,7 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8142285987162281</v>
+        <v>1.1653967900143296</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10968,8 +10559,7 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.7406547867238364</v>
+        <v>1.2634363958921395</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10995,8 +10585,7 @@
         <v>0</v>
       </c>
       <c r="H397">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.7026186001289547</v>
+        <v>2.6071719765873014</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11022,8 +10611,7 @@
         <v>0</v>
       </c>
       <c r="H398">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.155079395688563E-2</v>
+        <v>1.8702931023105784</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11049,8 +10637,7 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4296032380137111</v>
+        <v>2.181371983330195</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11076,8 +10663,7 @@
         <v>0</v>
       </c>
       <c r="H400">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.1095524064278917</v>
+        <v>2.7857690121493563</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11103,8 +10689,7 @@
         <v>0</v>
       </c>
       <c r="H401">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.5420281354365839</v>
+        <v>0.45239793478880275</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11130,8 +10715,7 @@
         <v>0</v>
       </c>
       <c r="H402">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.3924895018099188</v>
+        <v>2.802446948557602E-2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11157,8 +10741,7 @@
         <v>0</v>
       </c>
       <c r="H403">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.8166790207527361</v>
+        <v>1.1122756126219659</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11184,8 +10767,7 @@
         <v>0</v>
       </c>
       <c r="H404">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.33067462129251501</v>
+        <v>1.7849861418438908</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11211,8 +10793,7 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.335253909976033</v>
+        <v>2.7427738344495944</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11238,8 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H406">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.0625277260007837</v>
+        <v>0.35591809825136467</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11265,8 +10845,7 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.3881109952189532</v>
+        <v>2.2533532896351334</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11292,8 +10871,7 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.0735229288504999</v>
+        <v>2.9376835046346694</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11319,8 +10897,7 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.3411132659159648</v>
+        <v>1.0647703730647624</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11346,8 +10923,7 @@
         <v>0</v>
       </c>
       <c r="H410">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.0499061276753361</v>
+        <v>2.518545328918274</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11373,8 +10949,7 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.27982741509049491</v>
+        <v>1.8795053960713815</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11400,8 +10975,7 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.14456836541571194</v>
+        <v>0.64696555142621615</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11427,8 +11001,7 @@
         <v>0</v>
       </c>
       <c r="H413">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.49381019245565405</v>
+        <v>0.89872332902103591</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11454,8 +11027,7 @@
         <v>0</v>
       </c>
       <c r="H414">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4556669561616515</v>
+        <v>0.78161615112814642</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11481,8 +11053,7 @@
         <v>0</v>
       </c>
       <c r="H415">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.62990910673013523</v>
+        <v>0.28336680503608946</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11508,8 +11079,7 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.104509333506984</v>
+        <v>1.3710648094231299</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11535,8 +11105,7 @@
         <v>0</v>
       </c>
       <c r="H417">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.787572933334989</v>
+        <v>1.8332640996507978</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11562,8 +11131,7 @@
         <v>0</v>
       </c>
       <c r="H418">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.3729576206469809</v>
+        <v>2.9021268881830395</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11589,8 +11157,7 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.13439611286311182</v>
+        <v>0.1242270978439054</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11616,8 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.12296078997042792</v>
+        <v>1.9497400038421819E-3</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11643,8 +11209,7 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.1334119597723733</v>
+        <v>2.7419993459321539</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11670,8 +11235,7 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.2630459239943446</v>
+        <v>1.930123444957444</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11697,8 +11261,7 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.56193326449897774</v>
+        <v>2.6995150360807938</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11724,8 +11287,7 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.2394900198417895</v>
+        <v>2.4837668569596598</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11751,8 +11313,7 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.2064008569368507</v>
+        <v>1.3904665633497926</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11778,8 +11339,7 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.85216624939680652</v>
+        <v>2.2885603639148915</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11805,8 +11365,7 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.9180336659351296</v>
+        <v>2.8011632704967746</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11832,8 +11391,7 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8587357163513332</v>
+        <v>2.442826603387652</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11859,8 +11417,7 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.8789009355699573</v>
+        <v>0.28683876936650587</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11886,8 +11443,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.5780933666421495</v>
+        <v>1.2570029155911961</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11913,8 +11469,7 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.0189806387275051</v>
+        <v>2.163653610144705</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11940,8 +11495,7 @@
         <v>0</v>
       </c>
       <c r="H432">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.7081832244242712</v>
+        <v>0.99476129564635463</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11967,8 +11521,7 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.7416398024537216</v>
+        <v>1.0037858438586906</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11994,8 +11547,7 @@
         <v>0</v>
       </c>
       <c r="H434">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.25670874834995983</v>
+        <v>0.59639948776920715</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12021,8 +11573,7 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.25930825314136674</v>
+        <v>1.3378572697455753</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12048,8 +11599,7 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.7031798306643953</v>
+        <v>0.98188264391807345</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12075,8 +11625,7 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.6046680876505452</v>
+        <v>0.83253428594626733</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12102,8 +11651,7 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.0295444663141886</v>
+        <v>2.2112835515562423</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12129,8 +11677,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8469276075458279</v>
+        <v>1.3135466525104489</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12156,8 +11703,7 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.38016579934905015</v>
+        <v>0.77187016930128771</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12183,8 +11729,7 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.098712182671401</v>
+        <v>0.9026409054743969</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12210,8 +11755,7 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.3031577986354526</v>
+        <v>2.7880652583471077</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12237,8 +11781,7 @@
         <v>0</v>
       </c>
       <c r="H443">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.310135206543066</v>
+        <v>4.6247915188520783E-2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12264,8 +11807,7 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.97460517920760936</v>
+        <v>1.6938400247986747</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12291,8 +11833,7 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.62021484014309636</v>
+        <v>0.21570973770067736</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12318,8 +11859,7 @@
         <v>0</v>
       </c>
       <c r="H446">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4469593341417073</v>
+        <v>2.1818851031948263</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12345,8 +11885,7 @@
         <v>0</v>
       </c>
       <c r="H447">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.0672263941297291</v>
+        <v>1.4290696096141773</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12372,8 +11911,7 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.242923426861144</v>
+        <v>1.1524663241490543</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12399,8 +11937,7 @@
         <v>0</v>
       </c>
       <c r="H449">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.1294746907235949</v>
+        <v>0.33212968761479655</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12426,8 +11963,7 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <f t="shared" ref="H450:H497" ca="1" si="7">RAND()*3</f>
-        <v>2.8155562501386755</v>
+        <v>0.12985163975711145</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12453,8 +11989,7 @@
         <v>0</v>
       </c>
       <c r="H451">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.78752535508156252</v>
+        <v>2.7900056437416354</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12480,8 +12015,7 @@
         <v>0</v>
       </c>
       <c r="H452">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3501123049454231</v>
+        <v>2.3489003939625541</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12507,8 +12041,7 @@
         <v>0</v>
       </c>
       <c r="H453">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.7647386885797842</v>
+        <v>0.56789772995896226</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12534,8 +12067,7 @@
         <v>0</v>
       </c>
       <c r="H454">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.4525217787139497</v>
+        <v>1.3839055192845438</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12561,8 +12093,7 @@
         <v>0</v>
       </c>
       <c r="H455">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.2885989058413032</v>
+        <v>0.82578577652699792</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12588,8 +12119,7 @@
         <v>0</v>
       </c>
       <c r="H456">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5610761484609057</v>
+        <v>0.69683602813764745</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12615,8 +12145,7 @@
         <v>0</v>
       </c>
       <c r="H457">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.3189002512471717</v>
+        <v>1.2039420944937786</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12642,8 +12171,7 @@
         <v>0</v>
       </c>
       <c r="H458">
-        <f t="shared" ca="1" si="7"/>
-        <v>6.7679212832617797E-2</v>
+        <v>0.41568341566496558</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12669,8 +12197,7 @@
         <v>0</v>
       </c>
       <c r="H459">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.51969865208201182</v>
+        <v>2.0388111816871213</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12696,8 +12223,7 @@
         <v>0</v>
       </c>
       <c r="H460">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.6371417100757304</v>
+        <v>1.2684820792506799</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12723,8 +12249,7 @@
         <v>0</v>
       </c>
       <c r="H461">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3151621976804821</v>
+        <v>9.5454721294138789E-2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12750,8 +12275,7 @@
         <v>0</v>
       </c>
       <c r="H462">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.36108929458286143</v>
+        <v>0.76358348554075806</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12777,8 +12301,7 @@
         <v>0</v>
       </c>
       <c r="H463">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.7664932033528316</v>
+        <v>2.4211261268241406</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12804,8 +12327,7 @@
         <v>0</v>
       </c>
       <c r="H464">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.3907804942456532</v>
+        <v>1.3777882604090175</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12831,8 +12353,7 @@
         <v>0</v>
       </c>
       <c r="H465">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.31321294031846891</v>
+        <v>1.5323787811277514</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12858,8 +12379,7 @@
         <v>0</v>
       </c>
       <c r="H466">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.22773454823857353</v>
+        <v>2.8192199687398452</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12885,8 +12405,7 @@
         <v>0</v>
       </c>
       <c r="H467">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.0855868965622912</v>
+        <v>1.2763322139013993</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12912,8 +12431,7 @@
         <v>0</v>
       </c>
       <c r="H468">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.4379022173288645</v>
+        <v>0.8572494286741712</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12939,8 +12457,7 @@
         <v>0</v>
       </c>
       <c r="H469">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.19923346009215004</v>
+        <v>1.0862229186841885</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12966,8 +12483,7 @@
         <v>0</v>
       </c>
       <c r="H470">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.2330306000655256</v>
+        <v>1.5862862801666333</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12993,8 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H471">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5226092594043323</v>
+        <v>2.0013009436402784</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -13020,8 +12535,7 @@
         <v>0</v>
       </c>
       <c r="H472">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.97116889859221511</v>
+        <v>0.10367589797559795</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13047,8 +12561,7 @@
         <v>0</v>
       </c>
       <c r="H473">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.19553402673702547</v>
+        <v>1.3295131015062587</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13074,8 +12587,7 @@
         <v>0</v>
       </c>
       <c r="H474">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5516886170957833</v>
+        <v>2.7866891131662141</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -13101,8 +12613,7 @@
         <v>0</v>
       </c>
       <c r="H475">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.6973327780483141</v>
+        <v>0.84838312504514168</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13128,8 +12639,7 @@
         <v>0</v>
       </c>
       <c r="H476">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.0596574344239151</v>
+        <v>0.9463054793322766</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13155,8 +12665,7 @@
         <v>0</v>
       </c>
       <c r="H477">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.343077351116607E-2</v>
+        <v>1.1301097852963458</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13182,8 +12691,7 @@
         <v>0</v>
       </c>
       <c r="H478">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.5319532295779492</v>
+        <v>2.9171204648880522</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13209,8 +12717,7 @@
         <v>0</v>
       </c>
       <c r="H479">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.37665894800840072</v>
+        <v>2.0096390879078774</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13236,8 +12743,7 @@
         <v>0</v>
       </c>
       <c r="H480">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.1590578239863643</v>
+        <v>0.30778954939893421</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13263,8 +12769,7 @@
         <v>0</v>
       </c>
       <c r="H481">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3346247217779843</v>
+        <v>1.4754232034162578</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13290,8 +12795,7 @@
         <v>0</v>
       </c>
       <c r="H482">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.630587315694954</v>
+        <v>1.1402158796742197</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13317,8 +12821,7 @@
         <v>0</v>
       </c>
       <c r="H483">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.21303183041529905</v>
+        <v>0.44867809733263642</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13344,8 +12847,7 @@
         <v>0</v>
       </c>
       <c r="H484">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.84086153414209408</v>
+        <v>1.9899033429545259</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13371,8 +12873,7 @@
         <v>0</v>
       </c>
       <c r="H485">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.65036843529291</v>
+        <v>0.74050914147346225</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13398,8 +12899,7 @@
         <v>0</v>
       </c>
       <c r="H486">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.8927651951442499</v>
+        <v>1.2125389331284562</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13425,8 +12925,7 @@
         <v>0</v>
       </c>
       <c r="H487">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2909608739184437</v>
+        <v>0.38198124053484661</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13452,8 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H488">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.1997216290410913</v>
+        <v>1.965960763542749</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13479,8 +12977,7 @@
         <v>0</v>
       </c>
       <c r="H489">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.73554525416343619</v>
+        <v>4.6021462233734489E-2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13506,8 +13003,7 @@
         <v>0</v>
       </c>
       <c r="H490">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.7028632173462137</v>
+        <v>0.83888229384476853</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13533,8 +13029,7 @@
         <v>0</v>
       </c>
       <c r="H491">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.8307885663204884</v>
+        <v>2.0513637526156563</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13560,8 +13055,7 @@
         <v>0</v>
       </c>
       <c r="H492">
-        <f t="shared" ca="1" si="7"/>
-        <v>2.4129455430509257</v>
+        <v>2.024724119147236</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13587,8 +13081,7 @@
         <v>0</v>
       </c>
       <c r="H493">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.56186482031026375</v>
+        <v>1.4183981626344393</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13614,8 +13107,7 @@
         <v>0</v>
       </c>
       <c r="H494">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.8701625035760356E-2</v>
+        <v>0.32585875237740258</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13641,8 +13133,7 @@
         <v>0</v>
       </c>
       <c r="H495">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.5851673977415088</v>
+        <v>0.72609911156110285</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13668,8 +13159,7 @@
         <v>0</v>
       </c>
       <c r="H496">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.1831795168259294</v>
+        <v>1.5947597789701782</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13695,8 +13185,7 @@
         <v>0</v>
       </c>
       <c r="H497">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.2129786886526532</v>
+        <v>0.67293170859170681</v>
       </c>
     </row>
   </sheetData>
